--- a/ПКМ/resdata PKM Temp=-5, Volume=10x15x4.xlsx
+++ b/ПКМ/resdata PKM Temp=-5, Volume=10x15x4.xlsx
@@ -527,7 +527,7 @@
         <v>948.6294601883625</v>
       </c>
       <c r="E3" t="n">
-        <v>472.74311107631</v>
+        <v>472.7442588236573</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>6.85207144808024</v>
+        <v>6.852133788798239</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>537.6457428083779</v>
+        <v>537.6457706417381</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>956.9516712963704</v>
+        <v>956.9517260142605</v>
       </c>
       <c r="E5" t="n">
-        <v>479.5951825243903</v>
+        <v>479.5963926124556</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7792763795276577</v>
+        <v>0.779276372799756</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1220363774610001</v>
+        <v>0.1220363665265872</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03098406211159912</v>
+        <v>0.03098406792223222</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06117184192745344</v>
+        <v>0.06117185357315481</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006531338972289697</v>
+        <v>0.006531339178269873</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>464.4414401073831</v>
+        <v>464.4337024884103</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>873.2939875310617</v>
+        <v>873.2852416354531</v>
       </c>
       <c r="E6" t="n">
-        <v>479.5951825243903</v>
+        <v>479.5963926124556</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7792763795276577</v>
+        <v>0.779276372799756</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1220363774610001</v>
+        <v>0.1220363665265872</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03098406211159912</v>
+        <v>0.03098406792223222</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06117184192745344</v>
+        <v>0.06117185357315481</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006531338972289697</v>
+        <v>0.006531339178269873</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>298.8091479089026</v>
+        <v>298.8134503532727</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>689.2385336443332</v>
+        <v>689.243243108484</v>
       </c>
       <c r="E7" t="n">
-        <v>479.5951825243903</v>
+        <v>479.5963926124556</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7792763795276577</v>
+        <v>0.779276372799756</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1220363774610001</v>
+        <v>0.1220363665265872</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03098406211159912</v>
+        <v>0.03098406792223222</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06117184192745344</v>
+        <v>0.06117185357315481</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006531338972289697</v>
+        <v>0.006531339178269873</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>230.2708520064149</v>
+        <v>230.3589596268983</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>615.1061754311561</v>
+        <v>615.2008050050149</v>
       </c>
       <c r="E8" t="n">
-        <v>479.5951825243903</v>
+        <v>479.5963926124556</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7792763795276577</v>
+        <v>0.779276372799756</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1220363774610001</v>
+        <v>0.1220363665265872</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03098406211159912</v>
+        <v>0.03098406792223222</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06117184192745344</v>
+        <v>0.06117185357315481</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006531338972289697</v>
+        <v>0.006531339178269873</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>229.348854194288</v>
+        <v>229.4371107832037</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>614.1162413860816</v>
+        <v>614.211013228357</v>
       </c>
       <c r="E9" t="n">
-        <v>479.5951825243903</v>
+        <v>479.5963926124556</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7792763795276577</v>
+        <v>0.779276372799756</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1220363774610001</v>
+        <v>0.1220363665265872</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03098406211159912</v>
+        <v>0.03098406792223222</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06117184192745344</v>
+        <v>0.06117185357315481</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006531338972289697</v>
+        <v>0.006531339178269873</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>169.3741228958494</v>
+        <v>169.5544904514582</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>550.0979573910012</v>
+        <v>550.2894635562178</v>
       </c>
       <c r="E10" t="n">
-        <v>479.5951825243903</v>
+        <v>479.5963926124556</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7792763795276577</v>
+        <v>0.779276372799756</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1220363774610001</v>
+        <v>0.1220363665265872</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03098406211159912</v>
+        <v>0.03098406792223222</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06117184192745344</v>
+        <v>0.06117185357315481</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006531338972289697</v>
+        <v>0.006531339178269873</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.2516338330121</v>
+        <v>103.3587137480632</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>480.259542295003</v>
+        <v>480.3721355987299</v>
       </c>
       <c r="E11" t="n">
-        <v>479.5951825243903</v>
+        <v>479.5963926124556</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7792763795276577</v>
+        <v>0.779276372799756</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1220363774610001</v>
+        <v>0.1220363665265872</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03098406211159912</v>
+        <v>0.03098406792223222</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06117184192745344</v>
+        <v>0.06117185357315481</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006531338972289697</v>
+        <v>0.006531339178269873</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>6.495140490341258</v>
+        <v>6.495199583671608</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3569309577389876</v>
+        <v>0.3569342051266353</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.986977195368734</v>
+        <v>5.986964117444473</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.986977195368734</v>
+        <v>5.986964117444473</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.986977195368734</v>
+        <v>5.986964117444473</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.986977195368734</v>
+        <v>5.986964117444473</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381355516811733</v>
+        <v>2.381350314990167</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0509488958594417</v>
+        <v>0.05094889585944164</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173059</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522553</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6629963684847801</v>
+        <v>0.6630118367793612</v>
       </c>
       <c r="C2" t="n">
-        <v>0.691427977835782</v>
+        <v>0.691440558151572</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9588798685294817</v>
+        <v>0.9588847934402208</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.85628699808534</v>
+        <v>53.85889162593943</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.57058197433514</v>
+        <v>34.5719061487094</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.849087310248684</v>
+        <v>0.8490872296552714</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.67976571226018</v>
+        <v>13.68044042798424</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7943133838620187</v>
+        <v>0.7943068447158418</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.228181747837128</v>
+        <v>5.228414063851379</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7951784820041347</v>
+        <v>0.7951735781206675</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3777575636529029</v>
+        <v>0.3781309853944097</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.2018555565443183</v>
+        <v>0.2019600636301812</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0768903396807398</v>
+        <v>0.07691470378532728</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08599393588747156</v>
+        <v>0.08602106400212016</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8941367654267577</v>
+        <v>0.8941380193045689</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41994.74103827124</v>
+        <v>41992.96232137045</v>
       </c>
       <c r="C2" t="n">
-        <v>42418.93034168812</v>
+        <v>42417.13365794995</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91250.16052078464</v>
+        <v>91251.30488489756</v>
       </c>
       <c r="C3" t="n">
-        <v>92171.87931392388</v>
+        <v>92173.03523727026</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40003.05196381328</v>
+        <v>40003.84707052717</v>
       </c>
       <c r="C4" t="n">
-        <v>40407.12319577098</v>
+        <v>40407.92633386583</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>516.5708732577522</v>
+        <v>516.569783817974</v>
       </c>
       <c r="C5" t="n">
-        <v>521.7887608664163</v>
+        <v>521.7876604221959</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33365.00767036324</v>
+        <v>33363.56533807091</v>
       </c>
       <c r="C6" t="n">
-        <v>33702.02794986186</v>
+        <v>33700.57104855648</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37584.31684048676</v>
+        <v>37581.22578005463</v>
       </c>
       <c r="C7" t="n">
-        <v>37963.95640453208</v>
+        <v>37960.8341212673</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>57.36486641155316</v>
+        <v>57.36878114510463</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>89.9185627603343</v>
+        <v>89.91529281937967</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.001427747385195</v>
+        <v>8.000782954788356</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>511.1417277305719</v>
+        <v>511.1294629780455</v>
       </c>
       <c r="C3" t="n">
-        <v>7.187094695544271</v>
+        <v>7.187287173362601</v>
       </c>
       <c r="D3" t="n">
-        <v>3436.245332561842</v>
+        <v>3436.210470264602</v>
       </c>
       <c r="E3" t="n">
-        <v>59.20855442434267</v>
+        <v>59.21049657112348</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.8861062525218</v>
+        <v>290.8909760484436</v>
       </c>
       <c r="C4" t="n">
-        <v>7.538312231164435</v>
+        <v>7.538845389444782</v>
       </c>
       <c r="D4" t="n">
-        <v>2765.353801956299</v>
+        <v>2765.346323910526</v>
       </c>
       <c r="E4" t="n">
-        <v>59.20855442434267</v>
+        <v>59.21049657112348</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>289.8976139230479</v>
+        <v>289.9092024766803</v>
       </c>
       <c r="C5" t="n">
-        <v>7.538312231164435</v>
+        <v>7.538845389444782</v>
       </c>
       <c r="D5" t="n">
-        <v>1289.386964283653</v>
+        <v>1289.450098444414</v>
       </c>
       <c r="E5" t="n">
-        <v>59.20855442434267</v>
+        <v>59.21049657112348</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163.5556947499288</v>
+        <v>163.7518333555097</v>
       </c>
       <c r="C6" t="n">
-        <v>7.538312231164435</v>
+        <v>7.538845389444782</v>
       </c>
       <c r="D6" t="n">
-        <v>694.8918925370826</v>
+        <v>695.7398978441339</v>
       </c>
       <c r="E6" t="n">
-        <v>59.20855442434267</v>
+        <v>59.21049657112348</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.4454378176688</v>
+        <v>158.6446023326949</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5941723734295258</v>
+        <v>0.5972127444873714</v>
       </c>
       <c r="D7" t="n">
-        <v>668.7234344528192</v>
+        <v>669.5878014915269</v>
       </c>
       <c r="E7" t="n">
-        <v>59.20855442434267</v>
+        <v>59.21049657112348</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>171.5673448819795</v>
+        <v>171.7804596189544</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5876158780479401</v>
+        <v>0.5886368037463124</v>
       </c>
       <c r="D8" t="n">
-        <v>2787.504685833358</v>
+        <v>2787.776397101316</v>
       </c>
       <c r="E8" t="n">
-        <v>14.78782669784601</v>
+        <v>14.76336295810431</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.4454376943242</v>
+        <v>158.6446022089526</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5941723734295258</v>
+        <v>0.5972127444873714</v>
       </c>
       <c r="D9" t="n">
-        <v>2755.718144408895</v>
+        <v>2755.940327292827</v>
       </c>
       <c r="E9" t="n">
-        <v>14.78782669784601</v>
+        <v>14.76336295810431</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>158.4454378176688</v>
+        <v>158.6446023326949</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5941723734295258</v>
+        <v>0.5972127444873714</v>
       </c>
       <c r="D10" t="n">
-        <v>675.0751698590039</v>
+        <v>675.7571606623599</v>
       </c>
       <c r="E10" t="n">
-        <v>73.99638112218868</v>
+        <v>73.97385952922778</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158.4454378176688</v>
+        <v>158.6446023326949</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5941723734295258</v>
+        <v>0.5972127444873714</v>
       </c>
       <c r="D11" t="n">
-        <v>675.0751698590039</v>
+        <v>675.7571606623599</v>
       </c>
       <c r="E11" t="n">
-        <v>78.31421355467499</v>
+        <v>78.27729205685931</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5941723734295258</v>
+        <v>0.5972127444873714</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6625573109956</v>
+        <v>251.6651102794154</v>
       </c>
       <c r="E12" t="n">
-        <v>78.31444809474085</v>
+        <v>78.27717232787998</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.07142045003633</v>
+        <v>54.08152411441432</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>226.9526182711842</v>
+        <v>226.9948645516464</v>
       </c>
       <c r="E13" t="n">
-        <v>73.99769135565577</v>
+        <v>73.97416897236894</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>53.72804625298829</v>
+        <v>53.73893820066098</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>225.5168948867383</v>
+        <v>225.5624358934501</v>
       </c>
       <c r="E14" t="n">
-        <v>67.93869379270494</v>
+        <v>67.91526080537393</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>86.59725848719</v>
+        <v>86.60901969401539</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0615870084587847</v>
+        <v>0.06161512420289748</v>
       </c>
       <c r="D15" t="n">
-        <v>362.7285274896489</v>
+        <v>362.7779725152299</v>
       </c>
       <c r="E15" t="n">
-        <v>63.49800409955846</v>
+        <v>63.49936154576538</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55.89012547143551</v>
+        <v>55.89199394480585</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06159218551274218</v>
+        <v>0.06161512886206133</v>
       </c>
       <c r="D16" t="n">
-        <v>234.0188438036438</v>
+        <v>234.026679805596</v>
       </c>
       <c r="E16" t="n">
-        <v>63.50080328248626</v>
+        <v>63.50008926625614</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>663.2224352568104</v>
+        <v>663.2237235733555</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>83.54673615024168</v>
+        <v>83.546898440654</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>71.03257141994453</v>
+        <v>71.03810904027399</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>297.4133765353077</v>
+        <v>297.4365625516272</v>
       </c>
       <c r="E19" t="n">
-        <v>83.54673615024168</v>
+        <v>83.546898440654</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>107.6266985742707</v>
+        <v>107.6228147810955</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1323083536910192</v>
+        <v>0.1322947050862805</v>
       </c>
       <c r="D20" t="n">
-        <v>2655.036174581693</v>
+        <v>2655.074311896647</v>
       </c>
       <c r="E20" t="n">
-        <v>22.12004413257626</v>
+        <v>22.10572051855336</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>106.126208788897</v>
+        <v>106.12320827325</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1256929360064683</v>
+        <v>0.1256799698319664</v>
       </c>
       <c r="D21" t="n">
-        <v>445.0327440368944</v>
+        <v>445.0200628855903</v>
       </c>
       <c r="E21" t="n">
-        <v>22.12004413257626</v>
+        <v>22.10572051855336</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>83.89430822079905</v>
+        <v>83.90522699925494</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>351.2654685204856</v>
+        <v>351.3111854458804</v>
       </c>
       <c r="E22" t="n">
-        <v>663.2224352568104</v>
+        <v>663.2237235733555</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>424.23724557427</v>
       </c>
       <c r="E23" t="n">
-        <v>663.2224352568104</v>
+        <v>663.2237235733555</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.81403115781264</v>
+        <v>50.81472873690523</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>663.2224352568104</v>
+        <v>663.2237235733555</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>87.92455663348534</v>
+        <v>87.93641758556828</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06482842995661547</v>
+        <v>0.06485802547673419</v>
       </c>
       <c r="D25" t="n">
-        <v>2561.069223321997</v>
+        <v>2561.175242547683</v>
       </c>
       <c r="E25" t="n">
-        <v>41.38057989639839</v>
+        <v>41.39367921895355</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>508.421612310719</v>
+        <v>508.4068113723721</v>
       </c>
       <c r="C26" t="n">
-        <v>6.608240549076844</v>
+        <v>6.608183146843654</v>
       </c>
       <c r="D26" t="n">
-        <v>3436.245332561842</v>
+        <v>3436.210470264602</v>
       </c>
       <c r="E26" t="n">
-        <v>53.15083611286055</v>
+        <v>53.15104876734064</v>
       </c>
       <c r="F26" t="n">
-        <v>6.857107489749874</v>
+        <v>6.857066693475337</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.2169028413275</v>
+        <v>193.1815443352887</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4392908782738405</v>
+        <v>0.4391500867932711</v>
       </c>
       <c r="D27" t="n">
-        <v>2844.554113821041</v>
+        <v>2844.486469032106</v>
       </c>
       <c r="E27" t="n">
-        <v>53.15083611286055</v>
+        <v>53.15104876734064</v>
       </c>
       <c r="F27" t="n">
-        <v>7.095196547116505</v>
+        <v>7.095195746209737</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.858740832732</v>
+        <v>168.9681978239543</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5015248730650375</v>
+        <v>0.5011783425053923</v>
       </c>
       <c r="D28" t="n">
-        <v>2787.504685833358</v>
+        <v>2787.776397101316</v>
       </c>
       <c r="E28" t="n">
-        <v>14.78782669784601</v>
+        <v>14.76336295810431</v>
       </c>
       <c r="F28" t="n">
-        <v>6.910221502546393</v>
+        <v>6.91114344330779</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>187.4007564640752</v>
+        <v>187.4073839818231</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4392908782738405</v>
+        <v>0.4391500867932711</v>
       </c>
       <c r="D29" t="n">
-        <v>2832.136485634221</v>
+        <v>2832.158726598304</v>
       </c>
       <c r="E29" t="n">
-        <v>67.93866281070656</v>
+        <v>67.91441172544495</v>
       </c>
       <c r="F29" t="n">
-        <v>7.068402635133738</v>
+        <v>7.068594966661913</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>107.6263687943667</v>
+        <v>107.6239693942183</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1323152201966324</v>
+        <v>0.1323044033958693</v>
       </c>
       <c r="D30" t="n">
-        <v>2655.035080045394</v>
+        <v>2655.078145693393</v>
       </c>
       <c r="E30" t="n">
-        <v>67.93866281070656</v>
+        <v>67.91441172544495</v>
       </c>
       <c r="F30" t="n">
-        <v>7.179852490319862</v>
+        <v>7.180002088363641</v>
       </c>
       <c r="G30" t="n">
-        <v>98.55089468230919</v>
+        <v>98.55298940770342</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>87.92332522366644</v>
+        <v>87.93627130310762</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06482535798153545</v>
+        <v>0.06485766040315694</v>
       </c>
       <c r="D31" t="n">
-        <v>2561.063985298457</v>
+        <v>2561.173513060196</v>
       </c>
       <c r="E31" t="n">
-        <v>45.8212386075465</v>
+        <v>45.80872939863312</v>
       </c>
       <c r="F31" t="n">
-        <v>7.241650326395128</v>
+        <v>7.241735832727575</v>
       </c>
       <c r="G31" t="n">
-        <v>95.84439794159402</v>
+        <v>95.84819783993281</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.44826964329849</v>
+        <v>42.35831362670746</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008404910960109356</v>
+        <v>0.008365391631673026</v>
       </c>
       <c r="D32" t="n">
-        <v>2561.063985298457</v>
+        <v>2561.173513060196</v>
       </c>
       <c r="E32" t="n">
-        <v>4.437890510218679</v>
+        <v>4.415171539117793</v>
       </c>
       <c r="F32" t="n">
-        <v>8.156631592650832</v>
+        <v>8.159132129561469</v>
       </c>
       <c r="G32" t="n">
-        <v>99.29928684609108</v>
+        <v>99.31059602441607</v>
       </c>
     </row>
     <row r="33">
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29.85579262156574</v>
+        <v>30.00561004518499</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002742783706988918</v>
+        <v>0.002741319466124289</v>
       </c>
       <c r="D33" t="n">
-        <v>2555.937312466799</v>
+        <v>2556.221510897472</v>
       </c>
       <c r="E33" t="n">
-        <v>4.437890510218679</v>
+        <v>4.415171539117793</v>
       </c>
       <c r="F33" t="n">
-        <v>8.654729874788494</v>
+        <v>8.655913712053433</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22.59435975272538</v>
+        <v>22.58556578136228</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002742783706988918</v>
+        <v>0.002741319466124289</v>
       </c>
       <c r="D34" t="n">
-        <v>94.76807974841279</v>
+        <v>94.73129538417118</v>
       </c>
       <c r="E34" t="n">
-        <v>4.437890510218679</v>
+        <v>4.415171539117793</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24.61559880323563</v>
+        <v>24.6067983017935</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>103.8643700110032</v>
+        <v>103.8275861303932</v>
       </c>
       <c r="E35" t="n">
-        <v>4.437890510218679</v>
+        <v>4.415171539117793</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>496.1393473844552</v>
+        <v>496.1278948028962</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3459.72600614518</v>
+        <v>3459.700752414953</v>
       </c>
       <c r="E40" t="n">
-        <v>5.082102398550055</v>
+        <v>5.082091297229959</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>243.0511841434224</v>
       </c>
       <c r="E41" t="n">
-        <v>6.058997562950835</v>
+        <v>6.05890816699501</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>511.1393473844552</v>
+        <v>511.1278948028962</v>
       </c>
       <c r="C42" t="n">
-        <v>7.187700285532333</v>
+        <v>7.187156130598021</v>
       </c>
       <c r="D42" t="n">
-        <v>3436.229332676222</v>
+        <v>3436.207667675359</v>
       </c>
       <c r="E42" t="n">
-        <v>6.058997562950835</v>
+        <v>6.05890816699501</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.986977195368734</v>
+        <v>5.986964117444473</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.986977195368734</v>
+        <v>5.986964117444473</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.986977195368734</v>
+        <v>5.986964117444473</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.986977195368734</v>
+        <v>5.986964117444473</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381355516811733</v>
+        <v>2.381350314990167</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0509488958594417</v>
+        <v>0.05094889585944164</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173059</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522553</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.549396574683241</v>
+        <v>1.548478611413729</v>
       </c>
       <c r="C2" t="n">
-        <v>1.686826399123673</v>
+        <v>1.686023157310409</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9185275826179691</v>
+        <v>0.9184207255396807</v>
       </c>
       <c r="E2" t="n">
-        <v>0.291412930522856</v>
+        <v>0.2915517573107383</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>139.1781265212836</v>
+        <v>139.1786819452919</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>32.47116856817585</v>
+        <v>32.47121767148064</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.245192323157323</v>
+        <v>6.245193501644616</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.8095392416329</v>
+        <v>47.80059057105407</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.44888299671107</v>
+        <v>31.4507512463143</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8490507666507514</v>
+        <v>0.8490468648454896</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.03203267760145</v>
+        <v>12.02632348015707</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8066972383715824</v>
+        <v>0.8067396830318997</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.305871954611763</v>
+        <v>4.301651905572186</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8081126688691739</v>
+        <v>0.808158299576387</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02275161270861184</v>
+        <v>0.02186393901050701</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03359487804798978</v>
+        <v>0.03257003889938014</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04036834023454446</v>
+        <v>0.04016168401426016</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04523660575301441</v>
+        <v>0.04500549202029885</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8923821662250697</v>
+        <v>0.8923729574191971</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39720.60389384102</v>
+        <v>39724.88264973601</v>
       </c>
       <c r="C2" t="n">
-        <v>40121.82211499093</v>
+        <v>40126.14409064243</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87389.3879114009</v>
+        <v>87383.21979689405</v>
       </c>
       <c r="C3" t="n">
-        <v>88272.10900141505</v>
+        <v>88265.87858272126</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35197.98664953004</v>
+        <v>35155.38135250824</v>
       </c>
       <c r="C4" t="n">
-        <v>35553.52186821216</v>
+        <v>35510.48621465479</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>470.0199230442694</v>
+        <v>469.9535598673538</v>
       </c>
       <c r="C5" t="n">
-        <v>474.7675990346156</v>
+        <v>474.7005655225796</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30395.83199154366</v>
+        <v>30349.97918662631</v>
       </c>
       <c r="C6" t="n">
-        <v>30702.86059751885</v>
+        <v>30656.54463295587</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33159.22576082759</v>
+        <v>33196.77728681804</v>
       </c>
       <c r="C7" t="n">
-        <v>33494.16743517938</v>
+        <v>33532.09826951318</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48.39651968262792</v>
+        <v>48.36629314388495</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.8610294684073</v>
+        <v>91.88959133916165</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.092009070842971</v>
+        <v>8.093961909406254</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17252.88987977973</v>
+        <v>17252.72385088724</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2094.568740248368</v>
+        <v>2094.318045677472</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11375.31621383573</v>
+        <v>11375.41970741217</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3937.885763525163</v>
+        <v>3937.877161626395</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2844.944231166415</v>
+        <v>2844.938016683886</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10560.53520230101</v>
+        <v>10560.51213391858</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19437.93393724096</v>
+        <v>19437.64535790633</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8401432242018807</v>
+        <v>0.8401465769968124</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>462.9070696555055</v>
+        <v>462.9100801288972</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>868.2092686082661</v>
+        <v>868.2126748622492</v>
       </c>
       <c r="E6" t="n">
         <v>527.466168735</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.5762196668851</v>
+        <v>305.5773338337553</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>693.4646408438432</v>
+        <v>693.465855633397</v>
       </c>
       <c r="E7" t="n">
         <v>527.466168735</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>234.763587499894</v>
+        <v>234.7633007761507</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>616.8585462905609</v>
+        <v>616.8582384457877</v>
       </c>
       <c r="E8" t="n">
         <v>527.466168735</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>233.8421353714105</v>
+        <v>233.8418505373095</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>615.8693098394008</v>
+        <v>615.8690040809116</v>
       </c>
       <c r="E9" t="n">
         <v>527.466168735</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.9744619273594</v>
+        <v>173.976776115078</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>551.9751115997525</v>
+        <v>551.9775679166186</v>
       </c>
       <c r="E10" t="n">
         <v>527.466168735</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>105.8012436857092</v>
+        <v>105.8092155369707</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>480.0009099261562</v>
+        <v>480.0092856430707</v>
       </c>
       <c r="E11" t="n">
         <v>527.466168735</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>505.0839440653575</v>
+        <v>505.087724020824</v>
       </c>
       <c r="C3" t="n">
-        <v>7.904150701471007</v>
+        <v>7.904360996822268</v>
       </c>
       <c r="D3" t="n">
-        <v>3413.188829856414</v>
+        <v>3413.196262357751</v>
       </c>
       <c r="E3" t="n">
-        <v>63.76678576839297</v>
+        <v>63.76745805787456</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>297.3351350824438</v>
+        <v>297.3361639630169</v>
       </c>
       <c r="C4" t="n">
-        <v>8.270104064407171</v>
+        <v>8.270224995484213</v>
       </c>
       <c r="D4" t="n">
-        <v>2754.60315139337</v>
+        <v>2754.601295836266</v>
       </c>
       <c r="E4" t="n">
-        <v>63.76678576839297</v>
+        <v>63.76745805787456</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>296.1757287701859</v>
+        <v>296.1763730886655</v>
       </c>
       <c r="C5" t="n">
-        <v>8.270104064407171</v>
+        <v>8.270224995484213</v>
       </c>
       <c r="D5" t="n">
-        <v>1323.599536130714</v>
+        <v>1323.603040132457</v>
       </c>
       <c r="E5" t="n">
-        <v>63.76678576839297</v>
+        <v>63.76745805787456</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163.7752993012359</v>
+        <v>163.7781730756253</v>
       </c>
       <c r="C6" t="n">
-        <v>8.270104064407171</v>
+        <v>8.270224995484213</v>
       </c>
       <c r="D6" t="n">
-        <v>696.2662704712936</v>
+        <v>696.2787547713669</v>
       </c>
       <c r="E6" t="n">
-        <v>63.76678576839297</v>
+        <v>63.76745805787456</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>162.3907090999471</v>
+        <v>162.3935470578061</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6567474621560015</v>
+        <v>0.6567942869203578</v>
       </c>
       <c r="D7" t="n">
-        <v>685.8690650845764</v>
+        <v>685.8814164271347</v>
       </c>
       <c r="E7" t="n">
-        <v>63.76678576839297</v>
+        <v>63.76745805787456</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.3639771617844</v>
+        <v>175.3650891872107</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6499031130952678</v>
+        <v>0.6499368996171999</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.943062624055</v>
+        <v>2791.942344000624</v>
       </c>
       <c r="E8" t="n">
-        <v>16.19130813738238</v>
+        <v>16.19186734191991</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>162.3907089685651</v>
+        <v>162.3935469264187</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6567474621560015</v>
+        <v>0.6567942869203578</v>
       </c>
       <c r="D9" t="n">
-        <v>2760.041523177998</v>
+        <v>2760.044573458025</v>
       </c>
       <c r="E9" t="n">
-        <v>16.19130813738238</v>
+        <v>16.19186734191991</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.3907090999471</v>
+        <v>162.3935470578061</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6567474621560015</v>
+        <v>0.6567942869203578</v>
       </c>
       <c r="D10" t="n">
-        <v>688.6396303277527</v>
+        <v>688.6160324928134</v>
       </c>
       <c r="E10" t="n">
-        <v>79.95809390577534</v>
+        <v>79.95932539979448</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162.3907090999471</v>
+        <v>162.3935470578061</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6567474621560015</v>
+        <v>0.6567942869203578</v>
       </c>
       <c r="D11" t="n">
-        <v>688.6396303277527</v>
+        <v>688.6160324928134</v>
       </c>
       <c r="E11" t="n">
-        <v>86.0201571690834</v>
+        <v>86.01772712775389</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6567474621560015</v>
+        <v>0.6567942869203578</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7151005927022</v>
+        <v>251.7151399103803</v>
       </c>
       <c r="E12" t="n">
-        <v>86.02028872670631</v>
+        <v>86.02207718183649</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.07191874153358</v>
+        <v>52.07015255081603</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>218.5928247504825</v>
+        <v>218.5854410039663</v>
       </c>
       <c r="E13" t="n">
-        <v>75.40201678919692</v>
+        <v>75.40105057367853</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>52.07191874153358</v>
+        <v>52.07015255081603</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>218.5928247504825</v>
+        <v>218.5854410039663</v>
       </c>
       <c r="E14" t="n">
-        <v>75.40201678919692</v>
+        <v>75.40105057367853</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>84.28613133170677</v>
+        <v>84.28468640588011</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05626622362133959</v>
+        <v>0.05626302157457102</v>
       </c>
       <c r="D15" t="n">
-        <v>353.0148106688893</v>
+        <v>353.008739108205</v>
       </c>
       <c r="E15" t="n">
-        <v>66.94649765290553</v>
+        <v>66.94679021530099</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55.47861412588571</v>
+        <v>55.47772010822473</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05626652302768868</v>
+        <v>0.05626288448698732</v>
       </c>
       <c r="D16" t="n">
-        <v>232.2928431924393</v>
+        <v>232.2891002160382</v>
       </c>
       <c r="E16" t="n">
-        <v>66.94897715463449</v>
+        <v>66.94533234608539</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.75205021371735</v>
+        <v>69.75028927296422</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>292.0518342448346</v>
+        <v>292.0444611859012</v>
       </c>
       <c r="E19" t="n">
         <v>87.4525217645657</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>108.5246194435978</v>
+        <v>108.5260801300835</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1364161200676662</v>
+        <v>0.1364179332440317</v>
       </c>
       <c r="D20" t="n">
-        <v>2639.856307446807</v>
+        <v>2639.860453881089</v>
       </c>
       <c r="E20" t="n">
-        <v>26.44585479668895</v>
+        <v>26.44762931650522</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>107.0178820605937</v>
+        <v>107.0182707298704</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1295953140642828</v>
+        <v>0.1295970365818301</v>
       </c>
       <c r="D21" t="n">
-        <v>448.8017942883194</v>
+        <v>448.8034374108036</v>
       </c>
       <c r="E21" t="n">
-        <v>26.44585479668895</v>
+        <v>26.44762931650522</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.58731084565105</v>
+        <v>81.5859640640047</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>341.6060705107409</v>
+        <v>341.6004315359877</v>
       </c>
       <c r="E22" t="n">
         <v>694.2278911978381</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.6527227314624</v>
+        <v>50.65250090414678</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.59391055754713</v>
+        <v>85.59245347915089</v>
       </c>
       <c r="C25" t="n">
-        <v>0.05922760381193642</v>
+        <v>0.05922423323639055</v>
       </c>
       <c r="D25" t="n">
-        <v>2533.064101059833</v>
+        <v>2533.056917411692</v>
       </c>
       <c r="E25" t="n">
-        <v>40.50077154494149</v>
+        <v>40.49909466793571</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>502.2080519138707</v>
+        <v>502.2123375590337</v>
       </c>
       <c r="C26" t="n">
-        <v>7.303429037639921</v>
+        <v>7.303685711304401</v>
       </c>
       <c r="D26" t="n">
-        <v>3413.188829856414</v>
+        <v>3413.196262357751</v>
       </c>
       <c r="E26" t="n">
-        <v>59.20855442434267</v>
+        <v>59.21049657112348</v>
       </c>
       <c r="F26" t="n">
-        <v>6.783786327545816</v>
+        <v>6.78378062005276</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>187.2233910347493</v>
+        <v>187.2257566473609</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4817426113142077</v>
+        <v>0.4817582271335967</v>
       </c>
       <c r="D27" t="n">
-        <v>2829.310667140757</v>
+        <v>2829.31488741975</v>
       </c>
       <c r="E27" t="n">
-        <v>59.20855442434267</v>
+        <v>59.21049657112348</v>
       </c>
       <c r="F27" t="n">
-        <v>7.020871324463603</v>
+        <v>7.020865967024204</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.5238982697668</v>
+        <v>172.5242209563736</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5563501736410634</v>
+        <v>0.5563709430413117</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.943062624055</v>
+        <v>2791.942344000624</v>
       </c>
       <c r="E28" t="n">
-        <v>16.19130813738238</v>
+        <v>16.19186734191991</v>
       </c>
       <c r="F28" t="n">
-        <v>6.874165396752419</v>
+        <v>6.874147236004911</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>183.5298880518386</v>
+        <v>183.5317650844038</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4817426113142077</v>
+        <v>0.4817582271335967</v>
       </c>
       <c r="D29" t="n">
-        <v>2821.286376664226</v>
+        <v>2821.289525430164</v>
       </c>
       <c r="E29" t="n">
-        <v>75.39986256172504</v>
+        <v>75.40236391304339</v>
       </c>
       <c r="F29" t="n">
-        <v>7.003371004949233</v>
+        <v>7.003363391561218</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>108.5247891331434</v>
+        <v>108.5248758304834</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1364169398601029</v>
+        <v>0.1364173406664007</v>
       </c>
       <c r="D30" t="n">
-        <v>2639.856792478162</v>
+        <v>2639.85701167289</v>
       </c>
       <c r="E30" t="n">
-        <v>75.39986256172504</v>
+        <v>75.40236391304339</v>
       </c>
       <c r="F30" t="n">
-        <v>7.126462709007595</v>
+        <v>7.126461982010763</v>
       </c>
       <c r="G30" t="n">
-        <v>97.80820833138935</v>
+        <v>97.80821198293553</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>85.59274015088806</v>
+        <v>85.59192895212846</v>
       </c>
       <c r="C31" t="n">
-        <v>0.05922489636491877</v>
+        <v>0.0592230199174918</v>
       </c>
       <c r="D31" t="n">
-        <v>2533.059244271478</v>
+        <v>2533.05587833058</v>
       </c>
       <c r="E31" t="n">
-        <v>48.954136453761</v>
+        <v>48.9546683656781</v>
       </c>
       <c r="F31" t="n">
-        <v>7.203143948220686</v>
+        <v>7.203148277682832</v>
       </c>
       <c r="G31" t="n">
-        <v>94.80134275753528</v>
+        <v>94.80125903224764</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>54.70479752602807</v>
+        <v>54.7113202694984</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01554051849564783</v>
+        <v>0.01554538563883994</v>
       </c>
       <c r="D32" t="n">
-        <v>2533.059244271478</v>
+        <v>2533.05587833058</v>
       </c>
       <c r="E32" t="n">
-        <v>8.453039634562437</v>
+        <v>8.455718227593131</v>
       </c>
       <c r="F32" t="n">
-        <v>7.791875678109468</v>
+        <v>7.791725584309926</v>
       </c>
       <c r="G32" t="n">
-        <v>97.19404584179438</v>
+        <v>97.19340204560602</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24.08220638424297</v>
+        <v>24.08317942049587</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003000574222395498</v>
+        <v>0.003000749503817813</v>
       </c>
       <c r="D33" t="n">
-        <v>2488.370282669033</v>
+        <v>2488.336911210735</v>
       </c>
       <c r="E33" t="n">
-        <v>8.453039634562437</v>
+        <v>8.455718227593131</v>
       </c>
       <c r="F33" t="n">
-        <v>8.386366540628613</v>
+        <v>8.386227972357208</v>
       </c>
       <c r="G33" t="n">
-        <v>97.68921465541825</v>
+        <v>97.68777478118041</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.08220638424297</v>
+        <v>24.08317942049587</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003000574222395498</v>
+        <v>0.003000749503817813</v>
       </c>
       <c r="D34" t="n">
-        <v>100.9910383700213</v>
+        <v>100.9951077723927</v>
       </c>
       <c r="E34" t="n">
-        <v>8.453039634562437</v>
+        <v>8.455718227593131</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>26.10450924022797</v>
+        <v>26.10548294495385</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>110.087214775767</v>
+        <v>110.0912840775983</v>
       </c>
       <c r="E35" t="n">
-        <v>8.453039634562437</v>
+        <v>8.455718227593131</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>496.1393473844552</v>
+        <v>496.1278948028962</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3459.72600614518</v>
+        <v>3459.700752414953</v>
       </c>
       <c r="E40" t="n">
-        <v>5.082102398550055</v>
+        <v>5.082091297229959</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>511.1393473844552</v>
+        <v>511.1278948028962</v>
       </c>
       <c r="C42" t="n">
-        <v>7.187700285532333</v>
+        <v>7.187156130598021</v>
       </c>
       <c r="D42" t="n">
-        <v>3436.229332676222</v>
+        <v>3436.207667675359</v>
       </c>
       <c r="E42" t="n">
-        <v>6.058997562950835</v>
+        <v>6.05890816699501</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=-5, Volume=10x15x4.xlsx
+++ b/ПКМ/resdata PKM Temp=-5, Volume=10x15x4.xlsx
@@ -527,7 +527,7 @@
         <v>948.6294601883625</v>
       </c>
       <c r="E3" t="n">
-        <v>472.7442588236573</v>
+        <v>472.8304720129615</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>6.852133788798239</v>
+        <v>6.85211557423658</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>537.6457706417381</v>
+        <v>537.6449987036775</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>956.9517260142605</v>
+        <v>956.9502084537128</v>
       </c>
       <c r="E5" t="n">
-        <v>479.5963926124556</v>
+        <v>479.682587587198</v>
       </c>
       <c r="F5" t="n">
-        <v>0.779276372799756</v>
+        <v>0.7792765593931867</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1220363665265872</v>
+        <v>0.1220366697845283</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03098406792223222</v>
+        <v>0.03098390676857535</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06117185357315481</v>
+        <v>0.06117153058814927</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006531339178269873</v>
+        <v>0.006531333465560415</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>464.4337024884103</v>
+        <v>464.4424497516292</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>873.2852416354531</v>
+        <v>873.2945430614839</v>
       </c>
       <c r="E6" t="n">
-        <v>479.5963926124556</v>
+        <v>479.682587587198</v>
       </c>
       <c r="F6" t="n">
-        <v>0.779276372799756</v>
+        <v>0.7792765593931867</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1220363665265872</v>
+        <v>0.1220366697845283</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03098406792223222</v>
+        <v>0.03098390676857535</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06117185357315481</v>
+        <v>0.06117153058814927</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006531339178269873</v>
+        <v>0.006531333465560415</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>298.8134503532727</v>
+        <v>298.8239948498094</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>689.243243108484</v>
+        <v>689.2541606958041</v>
       </c>
       <c r="E7" t="n">
-        <v>479.5963926124556</v>
+        <v>479.682587587198</v>
       </c>
       <c r="F7" t="n">
-        <v>0.779276372799756</v>
+        <v>0.7792765593931867</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1220363665265872</v>
+        <v>0.1220366697845283</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03098406792223222</v>
+        <v>0.03098390676857535</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06117185357315481</v>
+        <v>0.06117153058814927</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006531339178269873</v>
+        <v>0.006531333465560415</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>230.3589596268983</v>
+        <v>230.2718249045837</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>615.2008050050149</v>
+        <v>615.1066806388151</v>
       </c>
       <c r="E8" t="n">
-        <v>479.5963926124556</v>
+        <v>479.682587587198</v>
       </c>
       <c r="F8" t="n">
-        <v>0.779276372799756</v>
+        <v>0.7792765593931867</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1220363665265872</v>
+        <v>0.1220366697845283</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03098406792223222</v>
+        <v>0.03098390676857535</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06117185357315481</v>
+        <v>0.06117153058814927</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006531339178269873</v>
+        <v>0.006531333465560415</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>229.4371107832037</v>
+        <v>229.3498311509252</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>614.211013228357</v>
+        <v>614.1167509340391</v>
       </c>
       <c r="E9" t="n">
-        <v>479.5963926124556</v>
+        <v>479.682587587198</v>
       </c>
       <c r="F9" t="n">
-        <v>0.779276372799756</v>
+        <v>0.7792765593931867</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1220363665265872</v>
+        <v>0.1220366697845283</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03098406792223222</v>
+        <v>0.03098390676857535</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06117185357315481</v>
+        <v>0.06117153058814927</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006531339178269873</v>
+        <v>0.006531333465560415</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>169.5544904514582</v>
+        <v>169.3809321817727</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>550.2894635562178</v>
+        <v>550.1046583365021</v>
       </c>
       <c r="E10" t="n">
-        <v>479.5963926124556</v>
+        <v>479.682587587198</v>
       </c>
       <c r="F10" t="n">
-        <v>0.779276372799756</v>
+        <v>0.7792765593931867</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1220363665265872</v>
+        <v>0.1220366697845283</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03098406792223222</v>
+        <v>0.03098390676857535</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06117185357315481</v>
+        <v>0.06117153058814927</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006531339178269873</v>
+        <v>0.006531333465560415</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.3587137480632</v>
+        <v>103.2566418474804</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>480.3721355987299</v>
+        <v>480.264290978314</v>
       </c>
       <c r="E11" t="n">
-        <v>479.5963926124556</v>
+        <v>479.682587587198</v>
       </c>
       <c r="F11" t="n">
-        <v>0.779276372799756</v>
+        <v>0.7792765593931867</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1220363665265872</v>
+        <v>0.1220366697845283</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03098406792223222</v>
+        <v>0.03098390676857535</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06117185357315481</v>
+        <v>0.06117153058814927</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006531339178269873</v>
+        <v>0.006531333465560415</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>6.495199583671608</v>
+        <v>6.495182317923893</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3569342051266353</v>
+        <v>0.3569332563126909</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.986964117444473</v>
+        <v>5.98698402768817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.986964117444473</v>
+        <v>5.98698402768817</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.986964117444473</v>
+        <v>5.98698402768817</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.986964117444473</v>
+        <v>5.98698402768817</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381350314990167</v>
+        <v>2.381358234407115</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944164</v>
+        <v>0.05094889585944161</v>
       </c>
       <c r="K6" t="n">
         <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173059</v>
+        <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522553</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6630118367793612</v>
+        <v>0.6630642247982725</v>
       </c>
       <c r="C2" t="n">
-        <v>0.691440558151572</v>
+        <v>0.6914694006388746</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9588847934402208</v>
+        <v>0.9589205598767531</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.85889162593943</v>
+        <v>53.87280498182574</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.5719061487094</v>
+        <v>34.5786166007053</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8490872296552714</v>
+        <v>0.8490870979488018</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.68044042798424</v>
+        <v>13.6837642119555</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7943068447158418</v>
+        <v>0.7942789694090504</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.228414063851379</v>
+        <v>5.23036202498199</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7951735781206675</v>
+        <v>0.7951357193210059</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3781309853944097</v>
+        <v>0.3800621441829372</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.2019600636301812</v>
+        <v>0.2025011652187996</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07691470378532728</v>
+        <v>0.07704091374301239</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08602106400212016</v>
+        <v>0.0861615902773446</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8941380193045689</v>
+        <v>0.8941445195594259</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41992.96232137045</v>
+        <v>41993.03683821438</v>
       </c>
       <c r="C2" t="n">
-        <v>42417.13365794995</v>
+        <v>42417.20892748927</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91251.30488489756</v>
+        <v>91245.4385249754</v>
       </c>
       <c r="C3" t="n">
-        <v>92173.03523727026</v>
+        <v>92167.10962118726</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40003.84707052717</v>
+        <v>40002.25993623227</v>
       </c>
       <c r="C4" t="n">
-        <v>40407.92633386583</v>
+        <v>40406.32316791138</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>516.569783817974</v>
+        <v>516.5764417674638</v>
       </c>
       <c r="C5" t="n">
-        <v>521.7876604221959</v>
+        <v>521.7943856237009</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33363.56533807091</v>
+        <v>33367.10656799513</v>
       </c>
       <c r="C6" t="n">
-        <v>33700.57104855648</v>
+        <v>33704.14804847992</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37581.22578005463</v>
+        <v>37583.84881869388</v>
       </c>
       <c r="C7" t="n">
-        <v>37960.8341212673</v>
+        <v>37963.48365524635</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>57.36878114510463</v>
+        <v>57.38719456007939</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>89.91529281937967</v>
+        <v>89.89838874407695</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.000782954788356</v>
+        <v>7.999273615116302</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>511.1294629780455</v>
+        <v>511.134573818229</v>
       </c>
       <c r="C3" t="n">
-        <v>7.187287173362601</v>
+        <v>7.188617703913389</v>
       </c>
       <c r="D3" t="n">
-        <v>3436.210470264602</v>
+        <v>3436.210950890274</v>
       </c>
       <c r="E3" t="n">
-        <v>59.21049657112348</v>
+        <v>59.22259104733473</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.8909760484436</v>
+        <v>290.9002531509017</v>
       </c>
       <c r="C4" t="n">
-        <v>7.538845389444782</v>
+        <v>7.539861151314034</v>
       </c>
       <c r="D4" t="n">
-        <v>2765.346323910526</v>
+        <v>2765.332075434946</v>
       </c>
       <c r="E4" t="n">
-        <v>59.21049657112348</v>
+        <v>59.22259104733473</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>289.9092024766803</v>
+        <v>289.9080337338398</v>
       </c>
       <c r="C5" t="n">
-        <v>7.538845389444782</v>
+        <v>7.539861151314034</v>
       </c>
       <c r="D5" t="n">
-        <v>1289.450098444414</v>
+        <v>1289.442825436056</v>
       </c>
       <c r="E5" t="n">
-        <v>59.21049657112348</v>
+        <v>59.22259104733473</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163.7518333555097</v>
+        <v>163.5425364909598</v>
       </c>
       <c r="C6" t="n">
-        <v>7.538845389444782</v>
+        <v>7.539861151314034</v>
       </c>
       <c r="D6" t="n">
-        <v>695.7398978441339</v>
+        <v>694.8359281446157</v>
       </c>
       <c r="E6" t="n">
-        <v>59.21049657112348</v>
+        <v>59.22259104733473</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.6446023326949</v>
+        <v>158.451986288892</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5972127444873714</v>
+        <v>0.5942721433574075</v>
       </c>
       <c r="D7" t="n">
-        <v>669.5878014915269</v>
+        <v>668.7518526358006</v>
       </c>
       <c r="E7" t="n">
-        <v>59.21049657112348</v>
+        <v>59.22259104733473</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>171.7804596189544</v>
+        <v>171.5713309659711</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5886368037463124</v>
+        <v>0.5877266030810921</v>
       </c>
       <c r="D8" t="n">
-        <v>2787.776397101316</v>
+        <v>2787.506981579038</v>
       </c>
       <c r="E8" t="n">
-        <v>14.76336295810431</v>
+        <v>14.79071003870358</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.6446022089526</v>
+        <v>158.4519861655346</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5972127444873714</v>
+        <v>0.5942721433574075</v>
       </c>
       <c r="D9" t="n">
-        <v>2755.940327292827</v>
+        <v>2755.725456288424</v>
       </c>
       <c r="E9" t="n">
-        <v>14.76336295810431</v>
+        <v>14.79071003870358</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>158.6446023326949</v>
+        <v>158.451986288892</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5972127444873714</v>
+        <v>0.5942721433574075</v>
       </c>
       <c r="D10" t="n">
-        <v>675.7571606623599</v>
+        <v>675.0792576534491</v>
       </c>
       <c r="E10" t="n">
-        <v>73.97385952922778</v>
+        <v>74.01330108603831</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158.6446023326949</v>
+        <v>158.451986288892</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5972127444873714</v>
+        <v>0.5942721433574075</v>
       </c>
       <c r="D11" t="n">
-        <v>675.7571606623599</v>
+        <v>675.0792576534491</v>
       </c>
       <c r="E11" t="n">
-        <v>78.27729205685931</v>
+        <v>78.32993594056256</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5972127444873714</v>
+        <v>0.5942721433574075</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6651102794154</v>
+        <v>251.66264108679</v>
       </c>
       <c r="E12" t="n">
-        <v>78.27717232787998</v>
+        <v>78.33736241898909</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.08152411441432</v>
+        <v>54.06429139858079</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>226.9948645516464</v>
+        <v>226.9228097109583</v>
       </c>
       <c r="E13" t="n">
-        <v>73.97416897236894</v>
+        <v>74.01086669088447</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>53.73893820066098</v>
+        <v>53.72034293453163</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>225.5624358934501</v>
+        <v>225.4846860829068</v>
       </c>
       <c r="E14" t="n">
-        <v>67.91526080537393</v>
+        <v>67.95178902189991</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>86.60901969401539</v>
+        <v>86.58893315809667</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06161512420289748</v>
+        <v>0.06156711283151766</v>
       </c>
       <c r="D15" t="n">
-        <v>362.7779725152299</v>
+        <v>362.6935272377548</v>
       </c>
       <c r="E15" t="n">
-        <v>63.49936154576538</v>
+        <v>63.50166248292429</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55.89199394480585</v>
+        <v>55.88783931169951</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06161512886206133</v>
+        <v>0.06156717340552631</v>
       </c>
       <c r="D16" t="n">
-        <v>234.026679805596</v>
+        <v>234.0092587085508</v>
       </c>
       <c r="E16" t="n">
-        <v>63.50008926625614</v>
+        <v>63.50014188339873</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>663.2237235733555</v>
+        <v>663.2214079997838</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>83.546898440654</v>
+        <v>83.54660674573545</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>71.03810904027399</v>
+        <v>71.02618159989655</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>297.4365625516272</v>
+        <v>297.3866223587669</v>
       </c>
       <c r="E19" t="n">
-        <v>83.546898440654</v>
+        <v>83.54660674573545</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>107.6228147810955</v>
+        <v>107.6265913165622</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1322947050862805</v>
+        <v>0.1323180407381247</v>
       </c>
       <c r="D20" t="n">
-        <v>2655.074311896647</v>
+        <v>2655.001424712199</v>
       </c>
       <c r="E20" t="n">
-        <v>22.10572051855336</v>
+        <v>22.13028676376368</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>106.12320827325</v>
+        <v>106.1283382421231</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1256799698319664</v>
+        <v>0.1257021387012185</v>
       </c>
       <c r="D21" t="n">
-        <v>445.0200628855903</v>
+        <v>445.0417438036725</v>
       </c>
       <c r="E21" t="n">
-        <v>22.10572051855336</v>
+        <v>22.13028676376368</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>83.90522699925494</v>
+        <v>83.88655631184781</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>351.3111854458804</v>
+        <v>351.2330112777068</v>
       </c>
       <c r="E22" t="n">
-        <v>663.2237235733555</v>
+        <v>663.2214079997838</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>424.23724557427</v>
       </c>
       <c r="E23" t="n">
-        <v>663.2237235733555</v>
+        <v>663.2214079997838</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.81472873690523</v>
+        <v>50.81322622634288</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>663.2237235733555</v>
+        <v>663.2214079997838</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>87.93641758556828</v>
+        <v>87.91616070089628</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06485802547673419</v>
+        <v>0.06480748719107123</v>
       </c>
       <c r="D25" t="n">
-        <v>2561.175242547683</v>
+        <v>2560.998497034196</v>
       </c>
       <c r="E25" t="n">
-        <v>41.39367921895355</v>
+        <v>41.3713754229662</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>508.4068113723721</v>
+        <v>508.413904453517</v>
       </c>
       <c r="C26" t="n">
-        <v>6.608183146843654</v>
+        <v>6.609640790709534</v>
       </c>
       <c r="D26" t="n">
-        <v>3436.210470264602</v>
+        <v>3436.210950890274</v>
       </c>
       <c r="E26" t="n">
-        <v>53.15104876734064</v>
+        <v>53.162730941551</v>
       </c>
       <c r="F26" t="n">
-        <v>6.857066693475337</v>
+        <v>6.856970582146116</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.1815443352887</v>
+        <v>193.2072989644059</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4391500867932711</v>
+        <v>0.4393719477004422</v>
       </c>
       <c r="D27" t="n">
-        <v>2844.486469032106</v>
+        <v>2844.529292723092</v>
       </c>
       <c r="E27" t="n">
-        <v>53.15104876734064</v>
+        <v>53.162730941551</v>
       </c>
       <c r="F27" t="n">
-        <v>7.095195746209737</v>
+        <v>7.095060284199291</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.9681978239543</v>
+        <v>168.8630961251858</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5011783425053923</v>
+        <v>0.5016302137138309</v>
       </c>
       <c r="D28" t="n">
-        <v>2787.776397101316</v>
+        <v>2787.506981579038</v>
       </c>
       <c r="E28" t="n">
-        <v>14.76336295810431</v>
+        <v>14.79071003870358</v>
       </c>
       <c r="F28" t="n">
-        <v>6.91114344330779</v>
+        <v>6.910133327890756</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>187.4073839818231</v>
+        <v>187.3942179108165</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4391500867932711</v>
+        <v>0.4393719477004422</v>
       </c>
       <c r="D29" t="n">
-        <v>2832.158726598304</v>
+        <v>2832.117846625557</v>
       </c>
       <c r="E29" t="n">
-        <v>67.91441172544495</v>
+        <v>67.95344098025458</v>
       </c>
       <c r="F29" t="n">
-        <v>7.068594966661913</v>
+        <v>7.068279245569244</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>107.6239693942183</v>
+        <v>107.6252005583253</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1323044033958693</v>
+        <v>0.1323099535491274</v>
       </c>
       <c r="D30" t="n">
-        <v>2655.078145693393</v>
+        <v>2654.996810636623</v>
       </c>
       <c r="E30" t="n">
-        <v>67.91441172544495</v>
+        <v>67.95344098025458</v>
       </c>
       <c r="F30" t="n">
-        <v>7.180002088363641</v>
+        <v>7.179769756568557</v>
       </c>
       <c r="G30" t="n">
-        <v>98.55298940770342</v>
+        <v>98.54926539448822</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>87.93627130310762</v>
+        <v>87.91636080709736</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06485766040315694</v>
+        <v>0.06480798626908574</v>
       </c>
       <c r="D31" t="n">
-        <v>2561.173513060196</v>
+        <v>2561.000687196753</v>
       </c>
       <c r="E31" t="n">
-        <v>45.80872939863312</v>
+        <v>45.8231539202965</v>
       </c>
       <c r="F31" t="n">
-        <v>7.241735832727575</v>
+        <v>7.241592204972309</v>
       </c>
       <c r="G31" t="n">
-        <v>95.84819783993281</v>
+        <v>95.842162507746</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.35831362670746</v>
+        <v>42.50259599741025</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008365391631673026</v>
+        <v>0.008428855377705324</v>
       </c>
       <c r="D32" t="n">
-        <v>2561.173513060196</v>
+        <v>2561.000687196753</v>
       </c>
       <c r="E32" t="n">
-        <v>4.415171539117793</v>
+        <v>4.451647138501194</v>
       </c>
       <c r="F32" t="n">
-        <v>8.159132129561469</v>
+        <v>8.155131342347651</v>
       </c>
       <c r="G32" t="n">
-        <v>99.31059602441607</v>
+        <v>99.2925749963816</v>
       </c>
     </row>
     <row r="33">
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>30.00561004518499</v>
+        <v>29.76643534816338</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002741319466124289</v>
+        <v>0.002743670735014791</v>
       </c>
       <c r="D33" t="n">
-        <v>2556.221510897472</v>
+        <v>2555.7677832138</v>
       </c>
       <c r="E33" t="n">
-        <v>4.415171539117793</v>
+        <v>4.451647138501194</v>
       </c>
       <c r="F33" t="n">
-        <v>8.655913712053433</v>
+        <v>8.65402125586156</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22.58556578136228</v>
+        <v>22.59968509124928</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002741319466124289</v>
+        <v>0.002743670735014791</v>
       </c>
       <c r="D34" t="n">
-        <v>94.73129538417118</v>
+        <v>94.79035512395896</v>
       </c>
       <c r="E34" t="n">
-        <v>4.415171539117793</v>
+        <v>4.451647138501194</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24.6067983017935</v>
+        <v>24.62092809463246</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>103.8275861303932</v>
+        <v>103.8866450921764</v>
       </c>
       <c r="E35" t="n">
-        <v>4.415171539117793</v>
+        <v>4.451647138501194</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>496.1278948028962</v>
+        <v>496.1339688879576</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3459.700752414953</v>
+        <v>3459.714146185897</v>
       </c>
       <c r="E40" t="n">
-        <v>5.082091297229959</v>
+        <v>5.082108198229235</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>243.0511841434224</v>
       </c>
       <c r="E41" t="n">
-        <v>6.05890816699501</v>
+        <v>6.059077668984551</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>511.1278948028962</v>
+        <v>511.1339688879576</v>
       </c>
       <c r="C42" t="n">
-        <v>7.187156130598021</v>
+        <v>7.188130223711819</v>
       </c>
       <c r="D42" t="n">
-        <v>3436.207667675359</v>
+        <v>3436.215128046181</v>
       </c>
       <c r="E42" t="n">
-        <v>6.05890816699501</v>
+        <v>6.059077668984551</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.986964117444473</v>
+        <v>5.98698402768817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.986964117444473</v>
+        <v>5.98698402768817</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.986964117444473</v>
+        <v>5.98698402768817</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.986964117444473</v>
+        <v>5.98698402768817</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381350314990167</v>
+        <v>2.381358234407115</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944164</v>
+        <v>0.05094889585944161</v>
       </c>
       <c r="K6" t="n">
         <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173059</v>
+        <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522553</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.548478611413729</v>
+        <v>1.544766536706356</v>
       </c>
       <c r="C2" t="n">
-        <v>1.686023157310409</v>
+        <v>1.681608014806416</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9184207255396807</v>
+        <v>0.9186246277995925</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2915517573107383</v>
+        <v>0.2924185900679191</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>139.1786819452919</v>
+        <v>139.2204026909708</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>32.47121767148064</v>
+        <v>32.47490570685144</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.245193501644616</v>
+        <v>6.245282023868941</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.80059057105407</v>
+        <v>47.82189053596636</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.4507512463143</v>
+        <v>31.45541279619263</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8490468648454896</v>
+        <v>0.8490506079985757</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.02632348015707</v>
+        <v>12.03598386543559</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8067396830318997</v>
+        <v>0.8066581234413512</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.301651905572186</v>
+        <v>4.307198832296382</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.808158299576387</v>
+        <v>0.8080952085432286</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02186393901050701</v>
+        <v>0.02329504204176355</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03257003889938014</v>
+        <v>0.03421505801997572</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04016168401426016</v>
+        <v>0.04049347320799213</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04500549202029885</v>
+        <v>0.04537654555436373</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8923729574191971</v>
+        <v>0.8923877459882575</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39724.88264973601</v>
+        <v>39726.88438125644</v>
       </c>
       <c r="C2" t="n">
-        <v>40126.14409064243</v>
+        <v>40128.16604167318</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87383.21979689405</v>
+        <v>87398.15716536953</v>
       </c>
       <c r="C3" t="n">
-        <v>88265.87858272126</v>
+        <v>88280.9668337066</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35155.38135250824</v>
+        <v>35211.58254583859</v>
       </c>
       <c r="C4" t="n">
-        <v>35510.48621465479</v>
+        <v>35567.25509680666</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>469.9535598673538</v>
+        <v>470.1035218931866</v>
       </c>
       <c r="C5" t="n">
-        <v>474.7005655225796</v>
+        <v>474.85204231635</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30349.97918662631</v>
+        <v>30398.43135191732</v>
       </c>
       <c r="C6" t="n">
-        <v>30656.54463295587</v>
+        <v>30705.4862140579</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33196.77728681804</v>
+        <v>33166.19605109198</v>
       </c>
       <c r="C7" t="n">
-        <v>33532.09826951318</v>
+        <v>33501.20813241614</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48.36629314388495</v>
+        <v>48.41797106011274</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.88959133916165</v>
+        <v>91.84159606840564</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.093961909406254</v>
+        <v>8.089761316563941</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17252.72385088724</v>
+        <v>17252.84929512678</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2094.318045677472</v>
+        <v>2094.779050781066</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11375.41970741217</v>
+        <v>11375.38946890691</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3937.877161626395</v>
+        <v>3937.890257427939</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2844.938016683886</v>
+        <v>2844.947477807772</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10560.51213391858</v>
+        <v>10560.54725395038</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19437.64535790633</v>
+        <v>19438.16403996715</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8401465769968124</v>
+        <v>0.8403984226184404</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>462.9100801288972</v>
+        <v>462.9099540093895</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>868.2126748622492</v>
+        <v>868.2125321620273</v>
       </c>
       <c r="E6" t="n">
         <v>527.466168735</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.5773338337553</v>
+        <v>305.5875065192034</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>693.465855633397</v>
+        <v>693.4769470490943</v>
       </c>
       <c r="E7" t="n">
         <v>527.466168735</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>234.7633007761507</v>
+        <v>234.776462042478</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>616.8582384457877</v>
+        <v>616.8723692335802</v>
       </c>
       <c r="E8" t="n">
         <v>527.466168735</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>233.8418505373095</v>
+        <v>233.8550023989009</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>615.8690040809116</v>
+        <v>615.8831221186892</v>
       </c>
       <c r="E9" t="n">
         <v>527.466168735</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.976776115078</v>
+        <v>173.9836881566871</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>551.9775679166186</v>
+        <v>551.9849044769566</v>
       </c>
       <c r="E10" t="n">
         <v>527.466168735</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>105.8092155369707</v>
+        <v>105.8114174103097</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>480.0092856430707</v>
+        <v>480.011599068019</v>
       </c>
       <c r="E11" t="n">
         <v>527.466168735</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>505.087724020824</v>
+        <v>505.0845295224102</v>
       </c>
       <c r="C3" t="n">
-        <v>7.904360996822268</v>
+        <v>7.905637854398697</v>
       </c>
       <c r="D3" t="n">
-        <v>3413.196262357751</v>
+        <v>3413.172775143795</v>
       </c>
       <c r="E3" t="n">
-        <v>63.76745805787456</v>
+        <v>63.76232193256581</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>297.3361639630169</v>
+        <v>297.346928180203</v>
       </c>
       <c r="C4" t="n">
-        <v>8.270224995484213</v>
+        <v>8.271490265834116</v>
       </c>
       <c r="D4" t="n">
-        <v>2754.601295836266</v>
+        <v>2754.581880086592</v>
       </c>
       <c r="E4" t="n">
-        <v>63.76745805787456</v>
+        <v>63.76232193256581</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>296.1763730886655</v>
+        <v>296.1887200739822</v>
       </c>
       <c r="C5" t="n">
-        <v>8.270224995484213</v>
+        <v>8.271490265834116</v>
       </c>
       <c r="D5" t="n">
-        <v>1323.603040132457</v>
+        <v>1323.671310051057</v>
       </c>
       <c r="E5" t="n">
-        <v>63.76745805787456</v>
+        <v>63.76232193256581</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163.7781730756253</v>
+        <v>163.7842512074465</v>
       </c>
       <c r="C6" t="n">
-        <v>8.270224995484213</v>
+        <v>8.271490265834116</v>
       </c>
       <c r="D6" t="n">
-        <v>696.2787547713669</v>
+        <v>696.3057467583026</v>
       </c>
       <c r="E6" t="n">
-        <v>63.76745805787456</v>
+        <v>63.76232193256581</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>162.3935470578061</v>
+        <v>162.399367748475</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6567942869203578</v>
+        <v>0.6568903334650681</v>
       </c>
       <c r="D7" t="n">
-        <v>685.8814164271347</v>
+        <v>685.9067492829672</v>
       </c>
       <c r="E7" t="n">
-        <v>63.76745805787456</v>
+        <v>63.76232193256581</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.3650891872107</v>
+        <v>175.3714943773503</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6499368996171999</v>
+        <v>0.650045279882608</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.942344000624</v>
+        <v>2791.950601840499</v>
       </c>
       <c r="E8" t="n">
-        <v>16.19186734191991</v>
+        <v>16.19425173286965</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>162.3935469264187</v>
+        <v>162.3993676170746</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6567942869203578</v>
+        <v>0.6568903334650681</v>
       </c>
       <c r="D9" t="n">
-        <v>2760.044573458025</v>
+        <v>2760.050829353012</v>
       </c>
       <c r="E9" t="n">
-        <v>16.19186734191991</v>
+        <v>16.19425173286965</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.3935470578061</v>
+        <v>162.399367748475</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6567942869203578</v>
+        <v>0.6568903334650681</v>
       </c>
       <c r="D10" t="n">
-        <v>688.6160324928134</v>
+        <v>688.6193213236497</v>
       </c>
       <c r="E10" t="n">
-        <v>79.95932539979448</v>
+        <v>79.95657366543546</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162.3935470578061</v>
+        <v>162.399367748475</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6567942869203578</v>
+        <v>0.6568903334650681</v>
       </c>
       <c r="D11" t="n">
-        <v>688.6160324928134</v>
+        <v>688.6193213236497</v>
       </c>
       <c r="E11" t="n">
-        <v>86.01772712775389</v>
+        <v>86.02310839580917</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6567942869203578</v>
+        <v>0.6568903334650681</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7151399103803</v>
+        <v>251.7152205585014</v>
       </c>
       <c r="E12" t="n">
-        <v>86.02207718183649</v>
+        <v>86.02323669076121</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.07015255081603</v>
+        <v>52.06462183177945</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>218.5854410039663</v>
+        <v>218.5623192563087</v>
       </c>
       <c r="E13" t="n">
-        <v>75.40105057367853</v>
+        <v>75.4146640690563</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>52.07015255081603</v>
+        <v>52.06462183177945</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>218.5854410039663</v>
+        <v>218.5623192563087</v>
       </c>
       <c r="E14" t="n">
-        <v>75.40105057367853</v>
+        <v>75.4146640690563</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>84.28468640588011</v>
+        <v>84.27784429837908</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05626302157457102</v>
+        <v>0.05624786110411116</v>
       </c>
       <c r="D15" t="n">
-        <v>353.008739108205</v>
+        <v>352.9799886812814</v>
       </c>
       <c r="E15" t="n">
-        <v>66.94679021530099</v>
+        <v>66.94733868299392</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55.47772010822473</v>
+        <v>55.47625271468439</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05626288448698732</v>
+        <v>0.05624788119971961</v>
       </c>
       <c r="D16" t="n">
-        <v>232.2891002160382</v>
+        <v>232.2829490163732</v>
       </c>
       <c r="E16" t="n">
-        <v>66.94533234608539</v>
+        <v>66.94507031496886</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.75028927296422</v>
+        <v>69.74616723782943</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>292.0444611859012</v>
+        <v>292.0272022247918</v>
       </c>
       <c r="E19" t="n">
         <v>87.4525217645657</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>108.5260801300835</v>
+        <v>108.5270591138567</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1364179332440317</v>
+        <v>0.1364264619761994</v>
       </c>
       <c r="D20" t="n">
-        <v>2639.860453881089</v>
+        <v>2639.838155728674</v>
       </c>
       <c r="E20" t="n">
-        <v>26.44762931650522</v>
+        <v>26.4564806662297</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>107.0182707298704</v>
+        <v>107.0200988820516</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1295970365818301</v>
+        <v>0.1296051388773894</v>
       </c>
       <c r="D21" t="n">
-        <v>448.8034374108036</v>
+        <v>448.8111660357096</v>
       </c>
       <c r="E21" t="n">
-        <v>26.44762931650522</v>
+        <v>26.4564806662297</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.5859640640047</v>
+        <v>81.57962931631153</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>341.6004315359877</v>
+        <v>341.5739079473964</v>
       </c>
       <c r="E22" t="n">
         <v>694.2278911978381</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.65250090414678</v>
+        <v>50.65198164761458</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.59245347915089</v>
+        <v>85.58555382692788</v>
       </c>
       <c r="C25" t="n">
-        <v>0.05922423323639055</v>
+        <v>0.0592082748464328</v>
       </c>
       <c r="D25" t="n">
-        <v>2533.056917411692</v>
+        <v>2533.004295099235</v>
       </c>
       <c r="E25" t="n">
-        <v>40.49909466793571</v>
+        <v>40.49087897402481</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>502.2123375590337</v>
+        <v>502.2095991965214</v>
       </c>
       <c r="C26" t="n">
-        <v>7.303685711304401</v>
+        <v>7.30511544103769</v>
       </c>
       <c r="D26" t="n">
-        <v>3413.196262357751</v>
+        <v>3413.172775143795</v>
       </c>
       <c r="E26" t="n">
-        <v>59.21049657112348</v>
+        <v>59.22259104733473</v>
       </c>
       <c r="F26" t="n">
-        <v>6.78378062005276</v>
+        <v>6.783665151067407</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>187.2257566473609</v>
+        <v>187.219904549943</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4817582271335967</v>
+        <v>0.481842286231992</v>
       </c>
       <c r="D27" t="n">
-        <v>2829.31488741975</v>
+        <v>2829.297331851087</v>
       </c>
       <c r="E27" t="n">
-        <v>59.21049657112348</v>
+        <v>59.22259104733473</v>
       </c>
       <c r="F27" t="n">
-        <v>7.020865967024204</v>
+        <v>7.020749657480494</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.5242209563736</v>
+        <v>172.5310928853804</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5563709430413117</v>
+        <v>0.5564769784788</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.942344000624</v>
+        <v>2791.950601840499</v>
       </c>
       <c r="E28" t="n">
-        <v>16.19186734191991</v>
+        <v>16.19425173286965</v>
       </c>
       <c r="F28" t="n">
-        <v>6.874147236004911</v>
+        <v>6.874081289459703</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>183.5317650844038</v>
+        <v>183.5287391486609</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4817582271335967</v>
+        <v>0.481842286231992</v>
       </c>
       <c r="D29" t="n">
-        <v>2821.289525430164</v>
+        <v>2821.277871941401</v>
       </c>
       <c r="E29" t="n">
-        <v>75.40236391304339</v>
+        <v>75.41684278020438</v>
       </c>
       <c r="F29" t="n">
-        <v>7.003363391561218</v>
+        <v>7.003259784805173</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>108.5248758304834</v>
+        <v>108.5263460091656</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1364173406664007</v>
+        <v>0.1364241375262048</v>
       </c>
       <c r="D30" t="n">
-        <v>2639.85701167289</v>
+        <v>2639.836118249383</v>
       </c>
       <c r="E30" t="n">
-        <v>75.40236391304339</v>
+        <v>75.41684278020438</v>
       </c>
       <c r="F30" t="n">
-        <v>7.126461982010763</v>
+        <v>7.126385174107503</v>
       </c>
       <c r="G30" t="n">
-        <v>97.80821198293553</v>
+        <v>97.80717209384071</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>85.59192895212846</v>
+        <v>85.58623457125469</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0592230199174918</v>
+        <v>0.05920984919825475</v>
       </c>
       <c r="D31" t="n">
-        <v>2533.05587833058</v>
+        <v>2533.007664367148</v>
       </c>
       <c r="E31" t="n">
-        <v>48.9546683656781</v>
+        <v>48.96038307123526</v>
       </c>
       <c r="F31" t="n">
-        <v>7.203148277682832</v>
+        <v>7.203110135287883</v>
       </c>
       <c r="G31" t="n">
-        <v>94.80125903224764</v>
+        <v>94.7995994731577</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>54.7113202694984</v>
+        <v>54.74494380513727</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01554538563883994</v>
+        <v>0.01557049553327956</v>
       </c>
       <c r="D32" t="n">
-        <v>2533.05587833058</v>
+        <v>2533.007664367148</v>
       </c>
       <c r="E32" t="n">
-        <v>8.455718227593131</v>
+        <v>8.469593754087448</v>
       </c>
       <c r="F32" t="n">
-        <v>7.791725584309926</v>
+        <v>7.790857874320507</v>
       </c>
       <c r="G32" t="n">
-        <v>97.19340204560602</v>
+        <v>97.18878133752023</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24.08317942049587</v>
+        <v>24.08817874177532</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003000749503817813</v>
+        <v>0.003001650215644123</v>
       </c>
       <c r="D33" t="n">
-        <v>2488.336911210735</v>
+        <v>2488.133948434844</v>
       </c>
       <c r="E33" t="n">
-        <v>8.455718227593131</v>
+        <v>8.469593754087448</v>
       </c>
       <c r="F33" t="n">
-        <v>8.386227972357208</v>
+        <v>8.3854100509768</v>
       </c>
       <c r="G33" t="n">
-        <v>97.68777478118041</v>
+        <v>97.67908771021109</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.08317942049587</v>
+        <v>24.08817874177532</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003000749503817813</v>
+        <v>0.003001650215644123</v>
       </c>
       <c r="D34" t="n">
-        <v>100.9951077723927</v>
+        <v>101.0160157732501</v>
       </c>
       <c r="E34" t="n">
-        <v>8.455718227593131</v>
+        <v>8.469593754087448</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>26.10548294495385</v>
+        <v>26.1104857028198</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>110.0912840775983</v>
+        <v>110.1121915733978</v>
       </c>
       <c r="E35" t="n">
-        <v>8.455718227593131</v>
+        <v>8.469593754087448</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>496.1278948028962</v>
+        <v>496.1339688879576</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3459.700752414953</v>
+        <v>3459.714146185897</v>
       </c>
       <c r="E40" t="n">
-        <v>5.082091297229959</v>
+        <v>5.082108198229235</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>511.1278948028962</v>
+        <v>511.1339688879576</v>
       </c>
       <c r="C42" t="n">
-        <v>7.187156130598021</v>
+        <v>7.188130223711819</v>
       </c>
       <c r="D42" t="n">
-        <v>3436.207667675359</v>
+        <v>3436.215128046181</v>
       </c>
       <c r="E42" t="n">
-        <v>6.05890816699501</v>
+        <v>6.059077668984551</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=-5, Volume=10x15x4.xlsx
+++ b/ПКМ/resdata PKM Temp=-5, Volume=10x15x4.xlsx
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6630642247982725</v>
+        <v>0.6995581588502615</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6914694006388746</v>
+        <v>0.7165832646359646</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9589205598767531</v>
+        <v>0.9762412735185044</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.87280498182574</v>
+        <v>58.86416228955531</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.5786166007053</v>
+        <v>37.09490996701857</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8490870979488018</v>
+        <v>0.8489085980949898</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.6837642119555</v>
+        <v>14.67524702389019</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7942789694090504</v>
+        <v>0.7860782182849646</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.23036202498199</v>
+        <v>5.892790844990141</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7951357193210059</v>
+        <v>0.7791806067957778</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3800621441829372</v>
+        <v>1.201214453656418</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.2025011652187996</v>
+        <v>0.3575419430554977</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07704091374301239</v>
+        <v>0.1162560999431994</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0861615902773446</v>
+        <v>0.1297047133197933</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8941445195594259</v>
+        <v>0.8963136108752217</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41993.03683821438</v>
+        <v>41848.36108389553</v>
       </c>
       <c r="C2" t="n">
-        <v>42417.20892748927</v>
+        <v>42271.07180191467</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91245.4385249754</v>
+        <v>89349.46804322534</v>
       </c>
       <c r="C3" t="n">
-        <v>92167.10962118726</v>
+        <v>90251.98792244983</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40002.25993623227</v>
+        <v>40641.2875038609</v>
       </c>
       <c r="C4" t="n">
-        <v>40406.32316791138</v>
+        <v>41051.80555945545</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>516.5764417674638</v>
+        <v>517.6660472286485</v>
       </c>
       <c r="C5" t="n">
-        <v>521.7943856237009</v>
+        <v>522.8949972006551</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33367.10656799513</v>
+        <v>33860.88052595479</v>
       </c>
       <c r="C6" t="n">
-        <v>33704.14804847992</v>
+        <v>34202.90962217655</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37583.84881869388</v>
+        <v>38279.80577081562</v>
       </c>
       <c r="C7" t="n">
-        <v>37963.48365524635</v>
+        <v>38666.47047557133</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>57.38719456007939</v>
+        <v>62.6661259364067</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>89.89838874407695</v>
+        <v>85.0366579930504</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.999273615116302</v>
+        <v>7.582072989815553</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>462.9099540093895</v>
+        <v>463.1548102211021</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>868.2125321620273</v>
+        <v>868.4895871358564</v>
       </c>
       <c r="E6" t="n">
         <v>527.466168735</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.5875065192034</v>
+        <v>309.1701903358845</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>693.4769470490943</v>
+        <v>697.3847973464043</v>
       </c>
       <c r="E7" t="n">
         <v>527.466168735</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>234.776462042478</v>
+        <v>237.2757702977453</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>616.8723692335802</v>
+        <v>619.5564777445836</v>
       </c>
       <c r="E8" t="n">
         <v>527.466168735</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>233.8550023989009</v>
+        <v>236.3528385816492</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>615.8831221186892</v>
+        <v>618.5651440284238</v>
       </c>
       <c r="E9" t="n">
         <v>527.466168735</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.9836881566871</v>
+        <v>175.6194222130433</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>551.9849044769566</v>
+        <v>553.721346170821</v>
       </c>
       <c r="E10" t="n">
         <v>527.466168735</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>105.8114174103097</v>
+        <v>106.195622692234</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>480.011599068019</v>
+        <v>480.4152788484304</v>
       </c>
       <c r="E11" t="n">
         <v>527.466168735</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>505.0845295224102</v>
+        <v>504.2530095180467</v>
       </c>
       <c r="C3" t="n">
-        <v>7.905637854398697</v>
+        <v>8.382552876276316</v>
       </c>
       <c r="D3" t="n">
-        <v>3413.172775143795</v>
+        <v>3405.491099049847</v>
       </c>
       <c r="E3" t="n">
-        <v>63.76232193256581</v>
+        <v>63.59507754056317</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>297.346928180203</v>
+        <v>301.1227222783887</v>
       </c>
       <c r="C4" t="n">
-        <v>8.271490265834116</v>
+        <v>8.724568827972531</v>
       </c>
       <c r="D4" t="n">
-        <v>2754.581880086592</v>
+        <v>2747.450147301394</v>
       </c>
       <c r="E4" t="n">
-        <v>63.76232193256581</v>
+        <v>63.59507754056317</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>296.1887200739822</v>
+        <v>299.5881231895742</v>
       </c>
       <c r="C5" t="n">
-        <v>8.271490265834116</v>
+        <v>8.724568827972531</v>
       </c>
       <c r="D5" t="n">
-        <v>1323.671310051057</v>
+        <v>1342.477739774574</v>
       </c>
       <c r="E5" t="n">
-        <v>63.76232193256581</v>
+        <v>63.59507754056317</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163.7842512074465</v>
+        <v>165.3684384532467</v>
       </c>
       <c r="C6" t="n">
-        <v>8.271490265834116</v>
+        <v>8.724568827972531</v>
       </c>
       <c r="D6" t="n">
-        <v>696.3057467583026</v>
+        <v>703.4139929573006</v>
       </c>
       <c r="E6" t="n">
-        <v>63.76232193256581</v>
+        <v>63.59507754056317</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>162.399367748475</v>
+        <v>163.8936375164365</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6568903334650681</v>
+        <v>0.6819192507483075</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9067492829672</v>
+        <v>692.4137994532663</v>
       </c>
       <c r="E7" t="n">
-        <v>63.76232193256581</v>
+        <v>63.59507754056317</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.3714943773503</v>
+        <v>176.7213364351683</v>
       </c>
       <c r="C8" t="n">
-        <v>0.650045279882608</v>
+        <v>0.6752087424730455</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.950601840499</v>
+        <v>2793.358450721623</v>
       </c>
       <c r="E8" t="n">
-        <v>16.19425173286965</v>
+        <v>16.32420653222313</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>162.3993676170746</v>
+        <v>163.8936373819152</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6568903334650681</v>
+        <v>0.6819192507483075</v>
       </c>
       <c r="D9" t="n">
-        <v>2760.050829353012</v>
+        <v>2761.644703141475</v>
       </c>
       <c r="E9" t="n">
-        <v>16.19425173286965</v>
+        <v>16.32420653222313</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.399367748475</v>
+        <v>163.6542781485347</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6568903334650681</v>
+        <v>0.6819192507483075</v>
       </c>
       <c r="D10" t="n">
-        <v>688.6193213236497</v>
+        <v>691.3732849591893</v>
       </c>
       <c r="E10" t="n">
-        <v>79.95657366543546</v>
+        <v>79.9192840727863</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162.399367748475</v>
+        <v>163.6542781485347</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6568903334650681</v>
+        <v>0.6819192507483075</v>
       </c>
       <c r="D11" t="n">
-        <v>688.6193213236497</v>
+        <v>691.3732849591893</v>
       </c>
       <c r="E11" t="n">
-        <v>86.02310839580917</v>
+        <v>87.07138313492742</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6568903334650681</v>
+        <v>0.6819192507483075</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7152205585014</v>
+        <v>251.736236707947</v>
       </c>
       <c r="E12" t="n">
-        <v>86.02323669076121</v>
+        <v>87.07251810569191</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.06462183177945</v>
+        <v>50.5872059480339</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>218.5623192563087</v>
+        <v>212.386172922742</v>
       </c>
       <c r="E13" t="n">
-        <v>75.4146640690563</v>
+        <v>79.91969776134651</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>52.06462183177945</v>
+        <v>50.5872059480339</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>218.5623192563087</v>
+        <v>212.386172922742</v>
       </c>
       <c r="E14" t="n">
-        <v>75.4146640690563</v>
+        <v>79.91969776134651</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>84.27784429837908</v>
+        <v>82.31581887290002</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05624786110411116</v>
+        <v>0.05203922081003628</v>
       </c>
       <c r="D15" t="n">
-        <v>352.9799886812814</v>
+        <v>344.7372612706876</v>
       </c>
       <c r="E15" t="n">
-        <v>66.94733868299392</v>
+        <v>67.13823381756065</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55.47625271468439</v>
+        <v>55.09031156225245</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05624788119971961</v>
+        <v>0.05203918591225434</v>
       </c>
       <c r="D16" t="n">
-        <v>232.2829490163732</v>
+        <v>230.6649141923817</v>
       </c>
       <c r="E16" t="n">
-        <v>66.94507031496886</v>
+        <v>67.13865825351435</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.74616723782943</v>
+        <v>68.60678445501975</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>292.0272022247918</v>
+        <v>287.2566065131677</v>
       </c>
       <c r="E19" t="n">
         <v>87.4525217645657</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>108.5270591138567</v>
+        <v>109.0541811209337</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1364264619761994</v>
+        <v>0.1388897428807523</v>
       </c>
       <c r="D20" t="n">
-        <v>2639.838155728674</v>
+        <v>2632.6751053321</v>
       </c>
       <c r="E20" t="n">
-        <v>26.4564806662297</v>
+        <v>29.01435804271864</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>107.0200988820516</v>
+        <v>107.5442107821742</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1296051388773894</v>
+        <v>0.1319452557367147</v>
       </c>
       <c r="D21" t="n">
-        <v>448.8111660357096</v>
+        <v>451.0270738890295</v>
       </c>
       <c r="E21" t="n">
-        <v>26.4564806662297</v>
+        <v>29.01435804271864</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.57962931631153</v>
+        <v>79.76352413405888</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>341.5739079473964</v>
+        <v>333.9698755493046</v>
       </c>
       <c r="E22" t="n">
         <v>694.2278911978381</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.65198164761458</v>
+        <v>50.50845255741927</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.58555382692788</v>
+        <v>83.60708579678516</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0592082748464328</v>
+        <v>0.05477812716845924</v>
       </c>
       <c r="D25" t="n">
-        <v>2533.004295099235</v>
+        <v>2516.913165463988</v>
       </c>
       <c r="E25" t="n">
-        <v>40.49087897402481</v>
+        <v>38.12383630957167</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>502.2095991965214</v>
+        <v>501.5689387209587</v>
       </c>
       <c r="C26" t="n">
-        <v>7.30511544103769</v>
+        <v>7.82213533648992</v>
       </c>
       <c r="D26" t="n">
-        <v>3413.172775143795</v>
+        <v>3405.491099049847</v>
       </c>
       <c r="E26" t="n">
-        <v>59.22259104733473</v>
+        <v>63.59507754056317</v>
       </c>
       <c r="F26" t="n">
-        <v>6.783665151067407</v>
+        <v>6.744065627559186</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>187.219904549943</v>
+        <v>184.6586645882732</v>
       </c>
       <c r="C27" t="n">
-        <v>0.481842286231992</v>
+        <v>0.5076863120288728</v>
       </c>
       <c r="D27" t="n">
-        <v>2829.297331851087</v>
+        <v>2822.192652037842</v>
       </c>
       <c r="E27" t="n">
-        <v>59.22259104733473</v>
+        <v>63.59507754056317</v>
       </c>
       <c r="F27" t="n">
-        <v>7.020749657480494</v>
+        <v>6.98189217237199</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.5310928853804</v>
+        <v>173.9709493011603</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5564769784788</v>
+        <v>0.5835236597836169</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.950601840499</v>
+        <v>2793.358450721623</v>
       </c>
       <c r="E28" t="n">
-        <v>16.19425173286965</v>
+        <v>16.32420653222313</v>
       </c>
       <c r="F28" t="n">
-        <v>6.874081289459703</v>
+        <v>6.856213013680135</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>183.5287391486609</v>
+        <v>181.9761650458506</v>
       </c>
       <c r="C29" t="n">
-        <v>0.481842286231992</v>
+        <v>0.5076863120288728</v>
       </c>
       <c r="D29" t="n">
-        <v>2821.277871941401</v>
+        <v>2816.303016476931</v>
       </c>
       <c r="E29" t="n">
-        <v>75.41684278020438</v>
+        <v>79.9192840727863</v>
       </c>
       <c r="F29" t="n">
-        <v>7.003259784805173</v>
+        <v>6.968989465279456</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>108.5263460091656</v>
+        <v>109.0549847505376</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1364241375262048</v>
+        <v>0.1388862537679172</v>
       </c>
       <c r="D30" t="n">
-        <v>2639.836118249383</v>
+        <v>2632.677159537012</v>
       </c>
       <c r="E30" t="n">
-        <v>75.41684278020438</v>
+        <v>79.9192840727863</v>
       </c>
       <c r="F30" t="n">
-        <v>7.126385174107503</v>
+        <v>7.099734960196352</v>
       </c>
       <c r="G30" t="n">
-        <v>97.80717209384071</v>
+        <v>97.44890113034171</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>85.58623457125469</v>
+        <v>83.60815330869013</v>
       </c>
       <c r="C31" t="n">
-        <v>0.05920984919825475</v>
+        <v>0.05478044043794511</v>
       </c>
       <c r="D31" t="n">
-        <v>2533.007664367148</v>
+        <v>2516.916350651029</v>
       </c>
       <c r="E31" t="n">
-        <v>48.96038307123526</v>
+        <v>50.90488656479732</v>
       </c>
       <c r="F31" t="n">
-        <v>7.203110135287883</v>
+        <v>7.191692368540303</v>
       </c>
       <c r="G31" t="n">
-        <v>94.7995994731577</v>
+        <v>94.25330826637209</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>54.74494380513727</v>
+        <v>63.50400936865526</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01557049553327956</v>
+        <v>0.02341286199905106</v>
       </c>
       <c r="D32" t="n">
-        <v>2533.007664367148</v>
+        <v>2516.916350651029</v>
       </c>
       <c r="E32" t="n">
-        <v>8.469593754087448</v>
+        <v>12.78103950783216</v>
       </c>
       <c r="F32" t="n">
-        <v>7.790857874320507</v>
+        <v>7.561672857265687</v>
       </c>
       <c r="G32" t="n">
-        <v>97.18878133752023</v>
+        <v>95.82803941310132</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24.08817874177532</v>
+        <v>25.58420472104058</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003001650215644123</v>
+        <v>0.003282019865469844</v>
       </c>
       <c r="D33" t="n">
-        <v>2488.133948434844</v>
+        <v>2422.932253902066</v>
       </c>
       <c r="E33" t="n">
-        <v>8.469593754087448</v>
+        <v>12.78103950783216</v>
       </c>
       <c r="F33" t="n">
-        <v>8.3854100509768</v>
+        <v>8.126983555244411</v>
       </c>
       <c r="G33" t="n">
-        <v>97.67908771021109</v>
+        <v>94.89277737215403</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.08817874177532</v>
+        <v>25.58420472104058</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003001650215644123</v>
+        <v>0.003282019865469844</v>
       </c>
       <c r="D34" t="n">
-        <v>101.0160157732501</v>
+        <v>107.2721669354605</v>
       </c>
       <c r="E34" t="n">
-        <v>8.469593754087448</v>
+        <v>12.78103950783216</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>26.1104857028198</v>
+        <v>27.60749910663714</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>110.1121915733978</v>
+        <v>116.3681485159851</v>
       </c>
       <c r="E35" t="n">
-        <v>8.469593754087448</v>
+        <v>12.78103950783216</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=-5, Volume=10x15x4.xlsx
+++ b/ПКМ/resdata PKM Temp=-5, Volume=10x15x4.xlsx
@@ -527,7 +527,7 @@
         <v>948.6294601883625</v>
       </c>
       <c r="E3" t="n">
-        <v>472.8304720129615</v>
+        <v>472.8250364173537</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>6.85211557423658</v>
+        <v>6.852113584396482</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>537.6449987036775</v>
+        <v>537.6450454540794</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>956.9502084537128</v>
+        <v>956.9503003607572</v>
       </c>
       <c r="E5" t="n">
-        <v>479.682587587198</v>
+        <v>479.6771500017501</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7792765593931867</v>
+        <v>0.7792765480926479</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1220366697845283</v>
+        <v>0.1220366514185114</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03098390676857535</v>
+        <v>0.03098391652842132</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06117153058814927</v>
+        <v>0.06117155014888383</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006531333465560415</v>
+        <v>0.006531333811535588</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>464.4424497516292</v>
+        <v>464.4372931500397</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>873.2945430614839</v>
+        <v>873.2887368154087</v>
       </c>
       <c r="E6" t="n">
-        <v>479.682587587198</v>
+        <v>479.6771500017501</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7792765593931867</v>
+        <v>0.7792765480926479</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1220366697845283</v>
+        <v>0.1220366514185114</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03098390676857535</v>
+        <v>0.03098391652842132</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06117153058814927</v>
+        <v>0.06117155014888383</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006531333465560415</v>
+        <v>0.006531333811535588</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>298.8239948498094</v>
+        <v>298.8237848524467</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>689.2541606958041</v>
+        <v>689.2539665895035</v>
       </c>
       <c r="E7" t="n">
-        <v>479.682587587198</v>
+        <v>479.6771500017501</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7792765593931867</v>
+        <v>0.7792765480926479</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1220366697845283</v>
+        <v>0.1220366514185114</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03098390676857535</v>
+        <v>0.03098391652842132</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06117153058814927</v>
+        <v>0.06117155014888383</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006531333465560415</v>
+        <v>0.006531333811535588</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>230.2718249045837</v>
+        <v>230.2584282495826</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>615.1066806388151</v>
+        <v>615.0923294386704</v>
       </c>
       <c r="E8" t="n">
-        <v>479.682587587198</v>
+        <v>479.6771500017501</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7792765593931867</v>
+        <v>0.7792765480926479</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1220366697845283</v>
+        <v>0.1220366514185114</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03098390676857535</v>
+        <v>0.03098391652842132</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06117153058814927</v>
+        <v>0.06117155014888383</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006531333465560415</v>
+        <v>0.006531333811535588</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>229.3498311509252</v>
+        <v>229.3364561128033</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>614.1167509340391</v>
+        <v>614.1024256146742</v>
       </c>
       <c r="E9" t="n">
-        <v>479.682587587198</v>
+        <v>479.6771500017501</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7792765593931867</v>
+        <v>0.7792765480926479</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1220366697845283</v>
+        <v>0.1220366514185114</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03098390676857535</v>
+        <v>0.03098391652842132</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06117153058814927</v>
+        <v>0.06117155014888383</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006531333465560415</v>
+        <v>0.006531333811535588</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>169.3809321817727</v>
+        <v>169.3781938490604</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>550.1046583365021</v>
+        <v>550.1017844127931</v>
       </c>
       <c r="E10" t="n">
-        <v>479.682587587198</v>
+        <v>479.6771500017501</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7792765593931867</v>
+        <v>0.7792765480926479</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1220366697845283</v>
+        <v>0.1220366514185114</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03098390676857535</v>
+        <v>0.03098391652842132</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06117153058814927</v>
+        <v>0.06117155014888383</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006531333465560415</v>
+        <v>0.006531333811535588</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.2566418474804</v>
+        <v>103.2517949218168</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>480.264290978314</v>
+        <v>480.2592278336983</v>
       </c>
       <c r="E11" t="n">
-        <v>479.682587587198</v>
+        <v>479.6771500017501</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7792765593931867</v>
+        <v>0.7792765480926479</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1220366697845283</v>
+        <v>0.1220366514185114</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03098390676857535</v>
+        <v>0.03098391652842132</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06117153058814927</v>
+        <v>0.06117155014888383</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006531333465560415</v>
+        <v>0.006531333811535588</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>6.495182317923893</v>
+        <v>6.495180431736471</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3569332563126909</v>
+        <v>0.3569331526600164</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.98698402768817</v>
+        <v>5.986992563943752</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.98698402768817</v>
+        <v>5.986992563943752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.98698402768817</v>
+        <v>5.986992563943752</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.98698402768817</v>
+        <v>5.986992563943752</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.04162103831</v>
+        <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381358234407115</v>
+        <v>2.381361629753158</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1143,22 +1143,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338337</v>
+        <v>0.1686684666338336</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944161</v>
+        <v>0.05094889585944181</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489641</v>
+        <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522553</v>
+        <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6995581588502615</v>
+        <v>0.6996215219565125</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7165832646359646</v>
+        <v>0.7166353806349105</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9762412735185044</v>
+        <v>0.9762586956517212</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.86416228955531</v>
+        <v>58.8675402986005</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.09490996701857</v>
+        <v>37.09836584391043</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8489085980949898</v>
+        <v>0.8489075095832306</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.67524702389019</v>
+        <v>14.67482974090882</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7860782182849646</v>
+        <v>0.7860948731704047</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.892790844990141</v>
+        <v>5.893024463899793</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7791806067957778</v>
+        <v>0.7791880701184533</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.201214453656418</v>
+        <v>1.201320249881452</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.3575419430554977</v>
+        <v>0.3575563188739567</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1162560999431994</v>
+        <v>0.1162600541252137</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1297047133197933</v>
+        <v>0.1297090911571637</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8963136108752217</v>
+        <v>0.8963138442188733</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41848.36108389553</v>
+        <v>41848.77460535843</v>
       </c>
       <c r="C2" t="n">
-        <v>42271.07180191467</v>
+        <v>42271.48950036205</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89349.46804322534</v>
+        <v>89348.63924958331</v>
       </c>
       <c r="C3" t="n">
-        <v>90251.98792244983</v>
+        <v>90251.15075715486</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40641.2875038609</v>
+        <v>40651.34507868018</v>
       </c>
       <c r="C4" t="n">
-        <v>41051.80555945545</v>
+        <v>41061.96472593958</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>517.6660472286485</v>
+        <v>517.6511347683424</v>
       </c>
       <c r="C5" t="n">
-        <v>522.8949972006551</v>
+        <v>522.8799341094368</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33860.88052595479</v>
+        <v>33852.69648985603</v>
       </c>
       <c r="C6" t="n">
-        <v>34202.90962217655</v>
+        <v>34194.6429190465</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38279.80577081562</v>
+        <v>38279.63180453951</v>
       </c>
       <c r="C7" t="n">
-        <v>38666.47047557133</v>
+        <v>38666.29475206011</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62.6661259364067</v>
+        <v>62.6595937148272</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85.0366579930504</v>
+        <v>85.04287620307129</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.582072989815553</v>
+        <v>7.582387001374196</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>511.134573818229</v>
+        <v>511.127650781303</v>
       </c>
       <c r="C3" t="n">
-        <v>7.188617703913389</v>
+        <v>7.188530334772455</v>
       </c>
       <c r="D3" t="n">
-        <v>3436.210950890274</v>
+        <v>3436.194714373971</v>
       </c>
       <c r="E3" t="n">
-        <v>59.22259104733473</v>
+        <v>59.21887947568987</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.9002531509017</v>
+        <v>290.900358874686</v>
       </c>
       <c r="C4" t="n">
-        <v>7.539861151314034</v>
+        <v>7.539872727750864</v>
       </c>
       <c r="D4" t="n">
-        <v>2765.332075434946</v>
+        <v>2765.331913036845</v>
       </c>
       <c r="E4" t="n">
-        <v>59.22259104733473</v>
+        <v>59.21887947568987</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>289.9080337338398</v>
+        <v>289.9276137804012</v>
       </c>
       <c r="C5" t="n">
-        <v>7.539861151314034</v>
+        <v>7.539872727750864</v>
       </c>
       <c r="D5" t="n">
-        <v>1289.442825436056</v>
+        <v>1289.550256441956</v>
       </c>
       <c r="E5" t="n">
-        <v>59.22259104733473</v>
+        <v>59.21887947568987</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163.5425364909598</v>
+        <v>163.5472641747738</v>
       </c>
       <c r="C6" t="n">
-        <v>7.539861151314034</v>
+        <v>7.539872727750864</v>
       </c>
       <c r="D6" t="n">
-        <v>694.8359281446157</v>
+        <v>694.8563659931427</v>
       </c>
       <c r="E6" t="n">
-        <v>59.22259104733473</v>
+        <v>59.21887947568987</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.451986288892</v>
+        <v>158.451198889397</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5942721433574075</v>
+        <v>0.594260146142578</v>
       </c>
       <c r="D7" t="n">
-        <v>668.7518526358006</v>
+        <v>668.7484355773571</v>
       </c>
       <c r="E7" t="n">
-        <v>59.22259104733473</v>
+        <v>59.21887947568987</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>171.5713309659711</v>
+        <v>171.5741468697412</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5877266030810921</v>
+        <v>0.5876808964347326</v>
       </c>
       <c r="D8" t="n">
-        <v>2787.506981579038</v>
+        <v>2787.514114217131</v>
       </c>
       <c r="E8" t="n">
-        <v>14.79071003870358</v>
+        <v>14.78743833355377</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.4519861655346</v>
+        <v>158.451198766041</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5942721433574075</v>
+        <v>0.594260146142578</v>
       </c>
       <c r="D9" t="n">
-        <v>2755.725456288424</v>
+        <v>2755.724577119011</v>
       </c>
       <c r="E9" t="n">
-        <v>14.79071003870358</v>
+        <v>14.78743833355377</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>158.451986288892</v>
+        <v>158.451198889397</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5942721433574075</v>
+        <v>0.594260146142578</v>
       </c>
       <c r="D10" t="n">
-        <v>675.0792576534491</v>
+        <v>675.0718788429322</v>
       </c>
       <c r="E10" t="n">
-        <v>74.01330108603831</v>
+        <v>74.00631780924364</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158.451986288892</v>
+        <v>158.451198889397</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5942721433574075</v>
+        <v>0.594260146142578</v>
       </c>
       <c r="D11" t="n">
-        <v>675.0792576534491</v>
+        <v>675.0718788429322</v>
       </c>
       <c r="E11" t="n">
-        <v>78.32993594056256</v>
+        <v>78.3328662833631</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5942721433574075</v>
+        <v>0.594260146142578</v>
       </c>
       <c r="D12" t="n">
-        <v>251.66264108679</v>
+        <v>251.6626310128999</v>
       </c>
       <c r="E12" t="n">
-        <v>78.33736241898909</v>
+        <v>78.3292985215262</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.06429139858079</v>
+        <v>54.06663477618753</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>226.9228097109583</v>
+        <v>226.9326080268023</v>
       </c>
       <c r="E13" t="n">
-        <v>74.01086669088447</v>
+        <v>74.00990001166818</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>53.72034293453163</v>
+        <v>53.72288840461835</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>225.4846860829068</v>
+        <v>225.4953290972966</v>
       </c>
       <c r="E14" t="n">
-        <v>67.95178902189991</v>
+        <v>67.95078927156955</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>86.58893315809667</v>
+        <v>86.59327264962877</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06156711283151766</v>
+        <v>0.06157748255073849</v>
       </c>
       <c r="D15" t="n">
-        <v>362.6935272377548</v>
+        <v>362.7117707484484</v>
       </c>
       <c r="E15" t="n">
-        <v>63.50166248292429</v>
+        <v>63.50157845779797</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55.88783931169951</v>
+        <v>55.8891191991076</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06156717340552631</v>
+        <v>0.0615775046967821</v>
       </c>
       <c r="D16" t="n">
-        <v>234.0092587085508</v>
+        <v>234.0146217266231</v>
       </c>
       <c r="E16" t="n">
-        <v>63.50014188339873</v>
+        <v>63.50232476466289</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>663.2214079997838</v>
+        <v>663.2209626847133</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>83.54660674573545</v>
+        <v>83.54655064898914</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>71.02618159989655</v>
+        <v>71.02929482783892</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>297.3866223587669</v>
+        <v>297.3996574441616</v>
       </c>
       <c r="E19" t="n">
-        <v>83.54660674573545</v>
+        <v>83.54655064898914</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>107.6265913165622</v>
+        <v>107.6269440702036</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1323180407381247</v>
+        <v>0.1323129563046442</v>
       </c>
       <c r="D20" t="n">
-        <v>2655.001424712199</v>
+        <v>2654.999817885137</v>
       </c>
       <c r="E20" t="n">
-        <v>22.13028676376368</v>
+        <v>22.12510836851788</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>106.1283382421231</v>
+        <v>106.1272205730127</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1257021387012185</v>
+        <v>0.125697308489412</v>
       </c>
       <c r="D21" t="n">
-        <v>445.0417438036725</v>
+        <v>445.0370201671753</v>
       </c>
       <c r="E21" t="n">
-        <v>22.13028676376368</v>
+        <v>22.12510836851788</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>83.88655631184781</v>
+        <v>83.89059995737729</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>351.2330112777068</v>
+        <v>351.2499420215387</v>
       </c>
       <c r="E22" t="n">
-        <v>663.2214079997838</v>
+        <v>663.2209626847133</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>424.23724557427</v>
       </c>
       <c r="E23" t="n">
-        <v>663.2214079997838</v>
+        <v>663.2209626847133</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.81322622634288</v>
+        <v>50.81361840251131</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>663.2214079997838</v>
+        <v>663.2209626847133</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>87.91616070089628</v>
+        <v>87.92053699349867</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06480748719107123</v>
+        <v>0.06481840268498788</v>
       </c>
       <c r="D25" t="n">
-        <v>2560.998497034196</v>
+        <v>2561.01520119003</v>
       </c>
       <c r="E25" t="n">
-        <v>41.3713754229662</v>
+        <v>41.37645957674595</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>508.413904453517</v>
+        <v>508.4068911274077</v>
       </c>
       <c r="C26" t="n">
-        <v>6.609640790709534</v>
+        <v>6.609588630717758</v>
       </c>
       <c r="D26" t="n">
-        <v>3436.210950890274</v>
+        <v>3436.194714373971</v>
       </c>
       <c r="E26" t="n">
-        <v>53.162730941551</v>
+        <v>53.16259927326002</v>
       </c>
       <c r="F26" t="n">
-        <v>6.856970582146116</v>
+        <v>6.856953268502535</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.2072989644059</v>
+        <v>193.199599817633</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4393719477004422</v>
+        <v>0.4393525225209283</v>
       </c>
       <c r="D27" t="n">
-        <v>2844.529292723092</v>
+        <v>2844.513955920474</v>
       </c>
       <c r="E27" t="n">
-        <v>53.162730941551</v>
+        <v>53.16259927326002</v>
       </c>
       <c r="F27" t="n">
-        <v>7.095060284199291</v>
+        <v>7.095047293453652</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.8630961251858</v>
+        <v>168.8647686843414</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5016302137138309</v>
+        <v>0.5015832485229434</v>
       </c>
       <c r="D28" t="n">
-        <v>2787.506981579038</v>
+        <v>2787.514114217131</v>
       </c>
       <c r="E28" t="n">
-        <v>14.79071003870358</v>
+        <v>14.78743833355377</v>
       </c>
       <c r="F28" t="n">
-        <v>6.910133327890756</v>
+        <v>6.91019108962645</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>187.3942179108165</v>
+        <v>187.3898143617504</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4393719477004422</v>
+        <v>0.4393525225209283</v>
       </c>
       <c r="D29" t="n">
-        <v>2832.117846625557</v>
+        <v>2832.10952357729</v>
       </c>
       <c r="E29" t="n">
-        <v>67.95344098025458</v>
+        <v>67.95003760681379</v>
       </c>
       <c r="F29" t="n">
-        <v>7.068279245569244</v>
+        <v>7.068281039973282</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>107.6252005583253</v>
+        <v>107.6270230851815</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1323099535491274</v>
+        <v>0.132318169949167</v>
       </c>
       <c r="D30" t="n">
-        <v>2654.996810636623</v>
+        <v>2655.000080070302</v>
       </c>
       <c r="E30" t="n">
-        <v>67.95344098025458</v>
+        <v>67.95003760681379</v>
       </c>
       <c r="F30" t="n">
-        <v>7.179769756568557</v>
+        <v>7.179750620636165</v>
       </c>
       <c r="G30" t="n">
-        <v>98.54926539448822</v>
+        <v>98.54928340904536</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>87.91636080709736</v>
+        <v>87.91974302881516</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06480798626908574</v>
+        <v>0.06481642223799741</v>
       </c>
       <c r="D31" t="n">
-        <v>2561.000687196753</v>
+        <v>2561.011554032726</v>
       </c>
       <c r="E31" t="n">
-        <v>45.8231539202965</v>
+        <v>45.82491872576178</v>
       </c>
       <c r="F31" t="n">
-        <v>7.241592204972309</v>
+        <v>7.241565390836286</v>
       </c>
       <c r="G31" t="n">
-        <v>95.842162507746</v>
+        <v>95.84237947041278</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.50259599741025</v>
+        <v>42.49002364061863</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008428855377705324</v>
+        <v>0.00842330887112476</v>
       </c>
       <c r="D32" t="n">
-        <v>2561.000687196753</v>
+        <v>2561.011554032726</v>
       </c>
       <c r="E32" t="n">
-        <v>4.451647138501194</v>
+        <v>4.44846450690666</v>
       </c>
       <c r="F32" t="n">
-        <v>8.155131342347651</v>
+        <v>8.155466496213283</v>
       </c>
       <c r="G32" t="n">
-        <v>99.2925749963816</v>
+        <v>99.29397074129336</v>
       </c>
     </row>
     <row r="33">
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29.76643534816338</v>
+        <v>29.78513397656809</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002743670735014791</v>
+        <v>0.002743465066055638</v>
       </c>
       <c r="D33" t="n">
-        <v>2555.7677832138</v>
+        <v>2555.8032678863</v>
       </c>
       <c r="E33" t="n">
-        <v>4.451647138501194</v>
+        <v>4.44846450690666</v>
       </c>
       <c r="F33" t="n">
-        <v>8.65402125586156</v>
+        <v>8.654172949283048</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22.59968509124928</v>
+        <v>22.59845047634769</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002743670735014791</v>
+        <v>0.002743465066055638</v>
       </c>
       <c r="D34" t="n">
-        <v>94.79035512395896</v>
+        <v>94.78519085079341</v>
       </c>
       <c r="E34" t="n">
-        <v>4.451647138501194</v>
+        <v>4.44846450690666</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24.62092809463246</v>
+        <v>24.61969256331651</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>103.8866450921764</v>
+        <v>103.8814808868095</v>
       </c>
       <c r="E35" t="n">
-        <v>4.451647138501194</v>
+        <v>4.44846450690666</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>496.1339688879576</v>
+        <v>496.1357109655372</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3459.714146185897</v>
+        <v>3459.71798758739</v>
       </c>
       <c r="E40" t="n">
-        <v>5.082108198229235</v>
+        <v>5.082115444310781</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>243.0511841434224</v>
       </c>
       <c r="E41" t="n">
-        <v>6.059077668984551</v>
+        <v>6.059110740098632</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>511.1339688879576</v>
+        <v>511.1357109655372</v>
       </c>
       <c r="C42" t="n">
-        <v>7.188130223711819</v>
+        <v>7.188282288913556</v>
       </c>
       <c r="D42" t="n">
-        <v>3436.215128046181</v>
+        <v>3436.217362897573</v>
       </c>
       <c r="E42" t="n">
-        <v>6.059077668984551</v>
+        <v>6.059110740098632</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.98698402768817</v>
+        <v>5.986992563943752</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.98698402768817</v>
+        <v>5.986992563943752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.98698402768817</v>
+        <v>5.986992563943752</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.98698402768817</v>
+        <v>5.986992563943752</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.04162103831</v>
+        <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381358234407115</v>
+        <v>2.381361629753158</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3400,22 +3400,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338337</v>
+        <v>0.1686684666338336</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944161</v>
+        <v>0.05094889585944181</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489641</v>
+        <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522553</v>
+        <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.544766536706356</v>
+        <v>1.546082384652107</v>
       </c>
       <c r="C2" t="n">
-        <v>1.681608014806416</v>
+        <v>1.6830543423913</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9186246277995925</v>
+        <v>0.9186170319702323</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2924185900679191</v>
+        <v>0.2921521520418464</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>139.2204026909708</v>
+        <v>139.2177722685981</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>32.47490570685144</v>
+        <v>32.47467320387783</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.245282023868941</v>
+        <v>6.245276442692585</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.82189053596636</v>
+        <v>47.82006584907378</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.45541279619263</v>
+        <v>31.45528705936183</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8490506079985757</v>
+        <v>0.8490502309801119</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.03598386543559</v>
+        <v>12.0345933468217</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8066581234413512</v>
+        <v>0.80667644998975</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.307198832296382</v>
+        <v>4.307016566826059</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8080952085432286</v>
+        <v>0.8081004823703972</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02329504204176355</v>
+        <v>0.02316887606418956</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03421505801997572</v>
+        <v>0.03407160519328659</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04049347320799213</v>
+        <v>0.04046452336974626</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04537654555436373</v>
+        <v>0.04534417027696465</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8923877459882575</v>
+        <v>0.8923864550302003</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39726.88438125644</v>
+        <v>39729.23496246184</v>
       </c>
       <c r="C2" t="n">
-        <v>40128.16604167318</v>
+        <v>40130.54036612307</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87398.15716536953</v>
+        <v>87394.50134235724</v>
       </c>
       <c r="C3" t="n">
-        <v>88280.9668337066</v>
+        <v>88277.27408318913</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35211.58254583859</v>
+        <v>35217.9063204958</v>
       </c>
       <c r="C4" t="n">
-        <v>35567.25509680666</v>
+        <v>35573.64274797556</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>470.1035218931866</v>
+        <v>470.0859026196285</v>
       </c>
       <c r="C5" t="n">
-        <v>474.85204231635</v>
+        <v>474.8342450703318</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30398.43135191732</v>
+        <v>30392.64871830287</v>
       </c>
       <c r="C6" t="n">
-        <v>30705.4862140579</v>
+        <v>30699.6451700029</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33166.19605109198</v>
+        <v>33166.85970380923</v>
       </c>
       <c r="C7" t="n">
-        <v>33501.20813241614</v>
+        <v>33501.87848869619</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48.41797106011274</v>
+        <v>48.40670972600383</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.84159606840564</v>
+        <v>91.85167418985164</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.089761316563941</v>
+        <v>8.090844921176158</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17252.84929512678</v>
+        <v>17252.8934167248</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2094.779050781066</v>
+        <v>2094.854071884186</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11375.38946890691</v>
+        <v>11375.38616551749</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3937.890257427939</v>
+        <v>3937.895872080916</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2844.947477807772</v>
+        <v>2844.951534140422</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10560.54725395038</v>
+        <v>10560.56231120291</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19438.16403996715</v>
+        <v>19438.26378930844</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8403984226184404</v>
+        <v>0.8403825441784265</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>463.1548102211021</v>
+        <v>463.1541103774751</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>868.4895871358564</v>
+        <v>868.4887952396701</v>
       </c>
       <c r="E6" t="n">
         <v>527.466168735</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>309.1701903358845</v>
+        <v>309.170919114817</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>697.3847973464043</v>
+        <v>697.385592595223</v>
       </c>
       <c r="E7" t="n">
         <v>527.466168735</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>237.2757702977453</v>
+        <v>237.2585809135287</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>619.5564777445836</v>
+        <v>619.5380126747576</v>
       </c>
       <c r="E8" t="n">
         <v>527.466168735</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>236.3528385816492</v>
+        <v>236.3356725347563</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>618.5651440284238</v>
+        <v>618.5467075160525</v>
       </c>
       <c r="E9" t="n">
         <v>527.466168735</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.6194222130433</v>
+        <v>175.6168188517013</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>553.721346170821</v>
+        <v>553.7185821387338</v>
       </c>
       <c r="E10" t="n">
         <v>527.466168735</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.195622692234</v>
+        <v>106.1933091342736</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>480.4152788484304</v>
+        <v>480.4128479628494</v>
       </c>
       <c r="E11" t="n">
         <v>527.466168735</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>504.2530095180467</v>
+        <v>504.2516633436642</v>
       </c>
       <c r="C3" t="n">
-        <v>8.382552876276316</v>
+        <v>8.382938255148963</v>
       </c>
       <c r="D3" t="n">
-        <v>3405.491099049847</v>
+        <v>3405.486647029638</v>
       </c>
       <c r="E3" t="n">
-        <v>63.59507754056317</v>
+        <v>63.60006749045894</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>301.1227222783887</v>
+        <v>301.1235272155787</v>
       </c>
       <c r="C4" t="n">
-        <v>8.724568827972531</v>
+        <v>8.724667404980888</v>
       </c>
       <c r="D4" t="n">
-        <v>2747.450147301394</v>
+        <v>2747.448557037751</v>
       </c>
       <c r="E4" t="n">
-        <v>63.59507754056317</v>
+        <v>63.60006749045894</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>299.5881231895742</v>
+        <v>299.6071928501988</v>
       </c>
       <c r="C5" t="n">
-        <v>8.724568827972531</v>
+        <v>8.724667404980888</v>
       </c>
       <c r="D5" t="n">
-        <v>1342.477739774574</v>
+        <v>1342.58687877107</v>
       </c>
       <c r="E5" t="n">
-        <v>63.59507754056317</v>
+        <v>63.60006749045894</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.3684384532467</v>
+        <v>165.3685752636155</v>
       </c>
       <c r="C6" t="n">
-        <v>8.724568827972531</v>
+        <v>8.724667404980888</v>
       </c>
       <c r="D6" t="n">
-        <v>703.4139929573006</v>
+        <v>703.414641240885</v>
       </c>
       <c r="E6" t="n">
-        <v>63.59507754056317</v>
+        <v>63.60006749045894</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.8936375164365</v>
+        <v>163.893755728311</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6819192507483075</v>
+        <v>0.6819212603263922</v>
       </c>
       <c r="D7" t="n">
-        <v>692.4137994532663</v>
+        <v>692.4143145185672</v>
       </c>
       <c r="E7" t="n">
-        <v>63.59507754056317</v>
+        <v>63.60006749045894</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.7213364351683</v>
+        <v>176.7235796510142</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6752087424730455</v>
+        <v>0.6751650807835511</v>
       </c>
       <c r="D8" t="n">
-        <v>2793.358450721623</v>
+        <v>2793.363432845098</v>
       </c>
       <c r="E8" t="n">
-        <v>16.32420653222313</v>
+        <v>16.3195926990085</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>163.8936373819152</v>
+        <v>163.8937555937896</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6819192507483075</v>
+        <v>0.6819212603263922</v>
       </c>
       <c r="D9" t="n">
-        <v>2761.644703141475</v>
+        <v>2761.644828273829</v>
       </c>
       <c r="E9" t="n">
-        <v>16.32420653222313</v>
+        <v>16.3195926990085</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.6542781485347</v>
+        <v>163.6563607752227</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6819192507483075</v>
+        <v>0.6819212603263922</v>
       </c>
       <c r="D10" t="n">
-        <v>691.3732849591893</v>
+        <v>691.3823386464728</v>
       </c>
       <c r="E10" t="n">
-        <v>79.9192840727863</v>
+        <v>79.91966018946744</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>163.6542781485347</v>
+        <v>163.6563607752227</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6819192507483075</v>
+        <v>0.6819212603263922</v>
       </c>
       <c r="D11" t="n">
-        <v>691.3732849591893</v>
+        <v>691.3823386464728</v>
       </c>
       <c r="E11" t="n">
-        <v>87.07138313492742</v>
+        <v>87.06919504653824</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6819192507483075</v>
+        <v>0.6819212603263922</v>
       </c>
       <c r="D12" t="n">
-        <v>251.736236707947</v>
+        <v>251.7362383953474</v>
       </c>
       <c r="E12" t="n">
-        <v>87.07251810569191</v>
+        <v>87.07163010902303</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.5872059480339</v>
+        <v>50.58704902969885</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>212.386172922742</v>
+        <v>212.3855169814969</v>
       </c>
       <c r="E13" t="n">
-        <v>79.91969776134651</v>
+        <v>79.91742589537355</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.5872059480339</v>
+        <v>50.58704902969885</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>212.386172922742</v>
+        <v>212.3855169814969</v>
       </c>
       <c r="E14" t="n">
-        <v>79.91969776134651</v>
+        <v>79.91742589537355</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>82.31581887290002</v>
+        <v>82.31825277986991</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05203922081003628</v>
+        <v>0.05204427326684762</v>
       </c>
       <c r="D15" t="n">
-        <v>344.7372612706876</v>
+        <v>344.7474844002576</v>
       </c>
       <c r="E15" t="n">
-        <v>67.13823381756065</v>
+        <v>67.13857571168239</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55.09031156225245</v>
+        <v>55.09041984720704</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05203918591225434</v>
+        <v>0.05204401957828161</v>
       </c>
       <c r="D16" t="n">
-        <v>230.6649141923817</v>
+        <v>230.665371271594</v>
       </c>
       <c r="E16" t="n">
-        <v>67.13865825351435</v>
+        <v>67.13595163556319</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.60678445501975</v>
+        <v>68.60764202651372</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>287.2566065131677</v>
+        <v>287.2601971650129</v>
       </c>
       <c r="E19" t="n">
         <v>87.4525217645657</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>109.0541811209337</v>
+        <v>109.0565006733549</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1388897428807523</v>
+        <v>0.1388866723045016</v>
       </c>
       <c r="D20" t="n">
-        <v>2632.6751053321</v>
+        <v>2632.673732799178</v>
       </c>
       <c r="E20" t="n">
-        <v>29.01435804271864</v>
+        <v>29.01131541608278</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>107.5442107821742</v>
+        <v>107.543562238971</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1319452557367147</v>
+        <v>0.1319423386892765</v>
       </c>
       <c r="D21" t="n">
-        <v>451.0270738890295</v>
+        <v>451.0243316562405</v>
       </c>
       <c r="E21" t="n">
-        <v>29.01435804271864</v>
+        <v>29.01131541608278</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>79.76352413405888</v>
+        <v>79.76577140734517</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>333.9698755493046</v>
+        <v>333.9792848825542</v>
       </c>
       <c r="E22" t="n">
         <v>694.2278911978381</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.50845255741927</v>
+        <v>50.50856058648391</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83.60708579678516</v>
+        <v>83.60954002828709</v>
       </c>
       <c r="C25" t="n">
-        <v>0.05477812716845924</v>
+        <v>0.05478344554405012</v>
       </c>
       <c r="D25" t="n">
-        <v>2516.913165463988</v>
+        <v>2516.913189432548</v>
       </c>
       <c r="E25" t="n">
-        <v>38.12383630957167</v>
+        <v>38.12722803210501</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>501.5689387209587</v>
+        <v>501.5700142361064</v>
       </c>
       <c r="C26" t="n">
-        <v>7.82213533648992</v>
+        <v>7.822733127012013</v>
       </c>
       <c r="D26" t="n">
-        <v>3405.491099049847</v>
+        <v>3405.486647029638</v>
       </c>
       <c r="E26" t="n">
-        <v>63.59507754056317</v>
+        <v>63.60006749045894</v>
       </c>
       <c r="F26" t="n">
-        <v>6.744065627559186</v>
+        <v>6.744026783090138</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>184.6586645882732</v>
+        <v>184.6528017933548</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5076863120288728</v>
+        <v>0.5076893288358073</v>
       </c>
       <c r="D27" t="n">
-        <v>2822.192652037842</v>
+        <v>2822.179626962784</v>
       </c>
       <c r="E27" t="n">
-        <v>63.59507754056317</v>
+        <v>63.60006749045894</v>
       </c>
       <c r="F27" t="n">
-        <v>6.98189217237199</v>
+        <v>6.981861065402338</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173.9709493011603</v>
+        <v>173.9719099605611</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5835236597836169</v>
+        <v>0.5834838136892847</v>
       </c>
       <c r="D28" t="n">
-        <v>2793.358450721623</v>
+        <v>2793.363432845098</v>
       </c>
       <c r="E28" t="n">
-        <v>16.32420653222313</v>
+        <v>16.3195926990085</v>
       </c>
       <c r="F28" t="n">
-        <v>6.856213013680135</v>
+        <v>6.856254381320441</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>181.9761650458506</v>
+        <v>181.972770680067</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5076863120288728</v>
+        <v>0.5076893288358073</v>
       </c>
       <c r="D29" t="n">
-        <v>2816.303016476931</v>
+        <v>2816.295360813237</v>
       </c>
       <c r="E29" t="n">
-        <v>79.9192840727863</v>
+        <v>79.91966018946744</v>
       </c>
       <c r="F29" t="n">
-        <v>6.968989465279456</v>
+        <v>6.968969990736465</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>109.0549847505376</v>
+        <v>109.0572268103504</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1388862537679172</v>
+        <v>0.1388967734148418</v>
       </c>
       <c r="D30" t="n">
-        <v>2632.677159537012</v>
+        <v>2632.675589331241</v>
       </c>
       <c r="E30" t="n">
-        <v>79.9192840727863</v>
+        <v>79.91966018946744</v>
       </c>
       <c r="F30" t="n">
-        <v>7.099734960196352</v>
+        <v>7.099697437179958</v>
       </c>
       <c r="G30" t="n">
-        <v>97.44890113034171</v>
+        <v>97.44867067932724</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>83.60815330869013</v>
+        <v>83.61105252350882</v>
       </c>
       <c r="C31" t="n">
-        <v>0.05478044043794511</v>
+        <v>0.05478672337104173</v>
       </c>
       <c r="D31" t="n">
-        <v>2516.916350651029</v>
+        <v>2516.917981715491</v>
       </c>
       <c r="E31" t="n">
-        <v>50.90488656479732</v>
+        <v>50.90831250989005</v>
       </c>
       <c r="F31" t="n">
-        <v>7.191692368540303</v>
+        <v>7.191647566615635</v>
       </c>
       <c r="G31" t="n">
-        <v>94.25330826637209</v>
+        <v>94.25315171609606</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>63.50400936865526</v>
+        <v>63.50477562361039</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02341286199905106</v>
+        <v>0.02341367262673284</v>
       </c>
       <c r="D32" t="n">
-        <v>2516.916350651029</v>
+        <v>2516.917981715491</v>
       </c>
       <c r="E32" t="n">
-        <v>12.78103950783216</v>
+        <v>12.78147425981037</v>
       </c>
       <c r="F32" t="n">
-        <v>7.561672857265687</v>
+        <v>7.561662480502819</v>
       </c>
       <c r="G32" t="n">
-        <v>95.82803941310132</v>
+        <v>95.82804904020554</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25.58420472104058</v>
+        <v>25.58435646812922</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003282019865469844</v>
+        <v>0.003282049424121152</v>
       </c>
       <c r="D33" t="n">
-        <v>2422.932253902066</v>
+        <v>2422.928804452987</v>
       </c>
       <c r="E33" t="n">
-        <v>12.78103950783216</v>
+        <v>12.78147425981037</v>
       </c>
       <c r="F33" t="n">
-        <v>8.126983555244411</v>
+        <v>8.12696807072707</v>
       </c>
       <c r="G33" t="n">
-        <v>94.89277737215403</v>
+        <v>94.89262400634173</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.58420472104058</v>
+        <v>25.58435646812922</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003282019865469844</v>
+        <v>0.003282049424121152</v>
       </c>
       <c r="D34" t="n">
-        <v>107.2721669354605</v>
+        <v>107.2728014730239</v>
       </c>
       <c r="E34" t="n">
-        <v>12.78103950783216</v>
+        <v>12.78147425981037</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>27.60749910663714</v>
+        <v>27.60765094976477</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>116.3681485159851</v>
+        <v>116.368783028984</v>
       </c>
       <c r="E35" t="n">
-        <v>12.78103950783216</v>
+        <v>12.78147425981037</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>496.1339688879576</v>
+        <v>496.1357109655372</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3459.714146185897</v>
+        <v>3459.71798758739</v>
       </c>
       <c r="E40" t="n">
-        <v>5.082108198229235</v>
+        <v>5.082115444310781</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>511.1339688879576</v>
+        <v>511.1357109655372</v>
       </c>
       <c r="C42" t="n">
-        <v>7.188130223711819</v>
+        <v>7.188282288913556</v>
       </c>
       <c r="D42" t="n">
-        <v>3436.215128046181</v>
+        <v>3436.217362897573</v>
       </c>
       <c r="E42" t="n">
-        <v>6.059077668984551</v>
+        <v>6.059110740098632</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
